--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="27795" windowHeight="12270"/>
+    <workbookView xWindow="-15" yWindow="6360" windowWidth="28830" windowHeight="6420"/>
   </bookViews>
   <sheets>
-    <sheet name="Stock Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Output" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,15 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
   <si>
     <t>Order type</t>
-  </si>
-  <si>
-    <t>Request Date</t>
-  </si>
-  <si>
-    <t>Sales Hold code</t>
   </si>
   <si>
     <t>PO</t>
@@ -611,41 +605,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -657,606 +650,600 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5">
+        <v>24</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="5">
+        <v>6</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="U4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="5">
         <v>24</v>
       </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="5">
-        <v>6</v>
-      </c>
-      <c r="W3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="5">
-        <v>3</v>
-      </c>
-      <c r="W4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="U5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="5">
         <v>4</v>
       </c>
-      <c r="W5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="5">
         <v>4</v>
       </c>
-      <c r="W6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="5">
-        <v>24</v>
-      </c>
-      <c r="W7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4</v>
+      </c>
+      <c r="U8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="5">
         <v>4</v>
       </c>
-      <c r="W8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="5">
-        <v>4</v>
-      </c>
-      <c r="W9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="5">
-        <v>4</v>
-      </c>
-      <c r="W10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="5">
+        <v>504</v>
+      </c>
+      <c r="U10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="5">
-        <v>4</v>
-      </c>
-      <c r="W11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="5">
+        <v>504</v>
+      </c>
+      <c r="U11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="H12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="5">
         <v>504</v>
       </c>
-      <c r="W12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="U13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="5">
+        <v>4</v>
+      </c>
+      <c r="U14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="5">
+        <v>36</v>
+      </c>
+      <c r="U15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="5">
+        <v>18</v>
+      </c>
+      <c r="U16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="5">
+        <v>18</v>
+      </c>
+      <c r="U17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="5">
+        <v>18</v>
+      </c>
+      <c r="U18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="5">
+        <v>18</v>
+      </c>
+      <c r="U19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="E20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="5">
         <v>504</v>
       </c>
-      <c r="W13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="5">
-        <v>504</v>
-      </c>
-      <c r="W14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="5">
-        <v>2</v>
-      </c>
-      <c r="W15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="5">
+      <c r="U20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="5">
+        <v>3</v>
+      </c>
+      <c r="U22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="5">
         <v>4</v>
       </c>
-      <c r="W16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="5">
-        <v>36</v>
-      </c>
-      <c r="W17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="5">
-        <v>18</v>
-      </c>
-      <c r="W18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="5">
-        <v>18</v>
-      </c>
-      <c r="W19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="5">
-        <v>18</v>
-      </c>
-      <c r="W20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="5">
-        <v>18</v>
-      </c>
-      <c r="W21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="5">
-        <v>504</v>
-      </c>
-      <c r="W22" s="5">
+      <c r="U23" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1303,79 +1290,79 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="W1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="270" windowWidth="27795" windowHeight="12150"/>
   </bookViews>
   <sheets>
-    <sheet name="Stock Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Output" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="270" windowWidth="27795" windowHeight="12150"/>
+    <workbookView xWindow="480" yWindow="270" windowWidth="20580" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="107">
   <si>
     <t>Order type</t>
   </si>
@@ -319,6 +319,24 @@
   </si>
   <si>
     <t>TA5TVWRLR</t>
+  </si>
+  <si>
+    <t>US00242763</t>
+  </si>
+  <si>
+    <t>US00029952</t>
+  </si>
+  <si>
+    <t>04B WM Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Stock Balls</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>T2025S</t>
   </si>
 </sst>
 </file>
@@ -1257,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,6 +2911,58 @@
         <v>6</v>
       </c>
       <c r="U59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" s="34">
+        <v>3</v>
+      </c>
+      <c r="K60" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" s="34">
+        <v>4</v>
+      </c>
+      <c r="K61" s="34">
         <v>1</v>
       </c>
     </row>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="107">
   <si>
     <t>Order type</t>
   </si>
@@ -319,13 +319,31 @@
   </si>
   <si>
     <t>TA5TVWRLR</t>
+  </si>
+  <si>
+    <t>NDNC / C18</t>
+  </si>
+  <si>
+    <t>No Charge Balls</t>
+  </si>
+  <si>
+    <t>T4024S</t>
+  </si>
+  <si>
+    <t>NDNC</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>UST8PUP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +495,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -825,7 +850,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -910,6 +935,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1257,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1316,7 @@
     <col min="21" max="21" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1353,87 +1381,82 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:22" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="34">
+        <v>1</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" s="34">
+        <v>1</v>
+      </c>
+      <c r="V2" s="34"/>
+    </row>
+    <row r="3" spans="1:22" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="9" t="s">
         <v>89</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>57</v>
@@ -1442,7 +1465,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>8</v>
@@ -1457,61 +1480,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>76</v>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>90</v>
+      <c r="H6" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="I6" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>76</v>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>57</v>
@@ -1520,12 +1543,12 @@
         <v>69</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>90</v>
       </c>
       <c r="I8" s="7">
@@ -1535,111 +1558,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="7">
+        <v>12</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="7">
+        <v>12</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I11" s="7">
         <v>6</v>
       </c>
-      <c r="U9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H12" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I12" s="7">
         <v>6</v>
       </c>
-      <c r="U10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="7">
-        <v>12</v>
-      </c>
-      <c r="U11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="7">
-        <v>12</v>
-      </c>
       <c r="U12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
@@ -1653,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H13" s="32" t="s">
         <v>90</v>
@@ -1665,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -1673,51 +1696,51 @@
         <v>57</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I15" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
@@ -1725,19 +1748,19 @@
         <v>57</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I16" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U16" s="1">
         <v>1</v>
@@ -1745,25 +1768,25 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I17" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
@@ -1783,7 +1806,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>90</v>
@@ -1809,7 +1832,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="32" t="s">
         <v>90</v>
@@ -1835,7 +1858,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>90</v>
@@ -1849,25 +1872,25 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I21" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="U21" s="1">
         <v>1</v>
@@ -1875,103 +1898,103 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="7">
+        <v>12</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="32" t="s">
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="7">
         <v>24</v>
       </c>
-      <c r="U22" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="7">
-        <v>12</v>
-      </c>
-      <c r="U23" s="35">
+      <c r="U23" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="7">
+        <v>24</v>
+      </c>
+      <c r="U24" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="32" t="s">
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I25" s="7">
         <v>12</v>
-      </c>
-      <c r="U24" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1</v>
       </c>
       <c r="U25" s="35">
         <v>1</v>
@@ -1979,25 +2002,25 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I26" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U26" s="35">
         <v>1</v>
@@ -2005,7 +2028,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>57</v>
@@ -2017,13 +2040,13 @@
         <v>11</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>91</v>
       </c>
       <c r="I27" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="U27" s="35">
         <v>1</v>
@@ -2040,7 +2063,7 @@
         <v>71</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>65</v>
@@ -2056,8 +2079,8 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>85</v>
+      <c r="A29" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>57</v>
@@ -2069,21 +2092,21 @@
         <v>11</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H29" s="32" t="s">
         <v>91</v>
       </c>
       <c r="I29" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="U29" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>85</v>
+      <c r="A30" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>57</v>
@@ -2092,16 +2115,16 @@
         <v>71</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H30" s="32" t="s">
         <v>91</v>
       </c>
       <c r="I30" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="U30" s="35">
         <v>1</v>
@@ -2118,7 +2141,7 @@
         <v>71</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>32</v>
@@ -2134,8 +2157,8 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>82</v>
+      <c r="A32" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>57</v>
@@ -2147,186 +2170,186 @@
         <v>11</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="7">
+        <v>40</v>
+      </c>
+      <c r="U32" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="7">
+        <v>10</v>
+      </c>
+      <c r="U33" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="7">
-        <v>1</v>
-      </c>
-      <c r="J32" s="19" t="s">
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" s="20" t="s">
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32" s="21" t="s">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32" s="22" t="s">
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32" s="23"/>
-      <c r="U32" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34" s="23"/>
+      <c r="U34" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="18" t="s">
+      <c r="C35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="E35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H35" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I35" s="12">
         <v>4</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J35" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="K33">
+      <c r="K35">
         <v>4</v>
       </c>
-      <c r="L33" s="34" t="s">
+      <c r="L35" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33" s="25" t="s">
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="U33" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="U35" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="C36" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="18" t="s">
+      <c r="E36" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="H36" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I36" s="18">
         <v>5</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J36" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="K34">
+      <c r="K36">
         <v>5</v>
       </c>
-      <c r="L34" s="34" t="s">
+      <c r="L36" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="M34">
+      <c r="M36">
         <v>2</v>
       </c>
-      <c r="N34" s="28" t="s">
+      <c r="N36" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="O34">
+      <c r="O36">
         <v>2</v>
       </c>
-      <c r="U34" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="U36" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="30">
-        <v>24</v>
-      </c>
-      <c r="U35" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="30">
-        <v>24</v>
-      </c>
-      <c r="U36" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>76</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>57</v>
@@ -2335,7 +2358,7 @@
         <v>86</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>8</v>
@@ -2361,7 +2384,7 @@
         <v>86</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>8</v>
@@ -2378,7 +2401,7 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>57</v>
@@ -2387,7 +2410,7 @@
         <v>86</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>8</v>
@@ -2404,7 +2427,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>57</v>
@@ -2413,7 +2436,7 @@
         <v>86</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F40" s="29" t="s">
         <v>8</v>
@@ -2422,7 +2445,7 @@
         <v>88</v>
       </c>
       <c r="I40" s="30">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U40" s="35">
         <v>1</v>
@@ -2430,7 +2453,7 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>57</v>
@@ -2439,16 +2462,16 @@
         <v>86</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="H41" s="32" t="s">
         <v>88</v>
       </c>
       <c r="I41" s="30">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U41" s="35">
         <v>1</v>
@@ -2468,7 +2491,7 @@
         <v>11</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="H42" s="32" t="s">
         <v>88</v>
@@ -2481,8 +2504,8 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
-        <v>74</v>
+      <c r="A43" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>57</v>
@@ -2494,7 +2517,7 @@
         <v>11</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H43" s="32" t="s">
         <v>88</v>
@@ -2508,7 +2531,7 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>57</v>
@@ -2520,21 +2543,21 @@
         <v>11</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H44" s="32" t="s">
         <v>88</v>
       </c>
       <c r="I44" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U44" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>76</v>
+      <c r="A45" s="33" t="s">
+        <v>74</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>57</v>
@@ -2546,13 +2569,13 @@
         <v>11</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H45" s="32" t="s">
         <v>88</v>
       </c>
       <c r="I45" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U45" s="35">
         <v>1</v>
@@ -2560,7 +2583,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>57</v>
@@ -2572,7 +2595,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46" s="32" t="s">
         <v>88</v>
@@ -2586,7 +2609,7 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>57</v>
@@ -2598,7 +2621,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H47" s="32" t="s">
         <v>88</v>
@@ -2624,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H48" s="32" t="s">
         <v>88</v>
@@ -2638,7 +2661,7 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>57</v>
@@ -2650,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>88</v>
@@ -2676,7 +2699,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50" s="32" t="s">
         <v>88</v>
@@ -2689,8 +2712,8 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
-        <v>87</v>
+      <c r="A51" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>57</v>
@@ -2702,13 +2725,13 @@
         <v>11</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="H51" s="32" t="s">
         <v>88</v>
       </c>
       <c r="I51" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U51" s="35">
         <v>1</v>
@@ -2716,7 +2739,7 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>57</v>
@@ -2728,21 +2751,21 @@
         <v>11</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H52" s="32" t="s">
         <v>88</v>
       </c>
       <c r="I52" s="30">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="U52" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>83</v>
+      <c r="A53" s="33" t="s">
+        <v>87</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>57</v>
@@ -2754,13 +2777,13 @@
         <v>11</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H53" s="32" t="s">
         <v>88</v>
       </c>
       <c r="I53" s="30">
-        <v>2032</v>
+        <v>2</v>
       </c>
       <c r="U53" s="35">
         <v>1</v>
@@ -2777,7 +2800,7 @@
         <v>86</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F54" s="29" t="s">
         <v>32</v>
@@ -2786,7 +2809,7 @@
         <v>88</v>
       </c>
       <c r="I54" s="30">
-        <v>1008</v>
+        <v>504</v>
       </c>
       <c r="U54" s="35">
         <v>1</v>
@@ -2806,13 +2829,13 @@
         <v>11</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H55" s="32" t="s">
         <v>88</v>
       </c>
       <c r="I55" s="30">
-        <v>504</v>
+        <v>2032</v>
       </c>
       <c r="U55" s="35">
         <v>1</v>
@@ -2829,16 +2852,16 @@
         <v>86</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H56" s="32" t="s">
         <v>88</v>
       </c>
       <c r="I56" s="30">
-        <v>2032</v>
+        <v>1008</v>
       </c>
       <c r="U56" s="35">
         <v>1</v>
@@ -2855,7 +2878,7 @@
         <v>86</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F57" s="29" t="s">
         <v>65</v>
@@ -2864,35 +2887,87 @@
         <v>88</v>
       </c>
       <c r="I57" s="30">
+        <v>504</v>
+      </c>
+      <c r="U57" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I58" s="30">
+        <v>2032</v>
+      </c>
+      <c r="U58" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I59" s="30">
         <v>1008</v>
       </c>
-      <c r="U57" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="U59" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="C61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H59" s="32" t="s">
+      <c r="H61" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I61" s="7">
         <v>6</v>
       </c>
-      <c r="U59" s="1">
+      <c r="U61" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="108">
   <si>
     <t>Order type</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>T2025S</t>
+  </si>
+  <si>
+    <t>CO_Number</t>
   </si>
 </sst>
 </file>
@@ -1275,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,9 +1307,10 @@
     <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1370,8 +1374,11 @@
       <c r="U1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>72</v>
       </c>
@@ -1397,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>73</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>74</v>
       </c>
@@ -1449,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>75</v>
       </c>
@@ -1475,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>76</v>
       </c>
@@ -1501,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>76</v>
       </c>
@@ -1527,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
@@ -1553,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -1579,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>77</v>
       </c>
@@ -1605,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -1631,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
@@ -1657,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
@@ -1683,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -1709,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>77</v>
       </c>
@@ -1735,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -497,7 +497,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +675,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -843,7 +849,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -928,6 +934,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1277,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -2915,7 +2922,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C60" t="s">
@@ -2968,6 +2975,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
@@ -11,12 +11,12 @@
     <sheet name="Output" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" fullCalcOnLoad="true"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="118">
   <si>
     <t>Order type</t>
   </si>
@@ -366,29 +366,17 @@
     <t>USTPU25</t>
   </si>
   <si>
-    <t>3013697281</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>| Search progi</t>
-  </si>
-  <si>
     <t>3013697285</t>
   </si>
   <si>
     <t>3013697286</t>
-  </si>
-  <si>
-    <t>Search progi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,19 +586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981"/>
+        <fgColor theme="4" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519242"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -621,19 +609,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999938962981"/>
+        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519242"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -644,19 +632,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.5999938962981"/>
+        <fgColor theme="6" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519242"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -667,19 +655,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981"/>
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519242"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -690,19 +678,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519242"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -713,19 +701,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519242"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -752,7 +740,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.49998474074526"/>
+        <color theme="4" tint="0.49995422223578601"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,7 +749,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519242"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,47 +837,47 @@
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -899,141 +887,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="true"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="true"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="true"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="true"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="true"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="true"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="true"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="true"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="true"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="true"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="true"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="true"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="true"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="true"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="true"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="true"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="true"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="true"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="true"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="true"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="true"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="true"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="true"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="true"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="true"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="true"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="true"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="true"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="true"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="true"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="true"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11" xfId="46"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="44"/>
     <cellStyle name="Normal 3" xfId="43"/>
     <cellStyle name="Normal 4" xfId="45"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="true"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="true"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="true"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="true"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1323,39 +1316,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="4" width="14.28515625" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="13.5703125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="16" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="16" customWidth="true"/>
-    <col min="8" max="8" width="15.7109375" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="10.7109375" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="10.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.5703125" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="10.7109375" customWidth="true"/>
-    <col min="16" max="16" width="10.7109375" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="10.7109375" customWidth="true"/>
-    <col min="18" max="18" width="18.42578125" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="6.85546875" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="18.28515625" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="13.85546875" customWidth="true"/>
-    <col min="22" max="22" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1419,11 +1412,11 @@
       <c r="U1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" s="34" customFormat="true" ht="30">
+    <row r="2" spans="1:22" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>70</v>
       </c>
@@ -1454,11 +1447,11 @@
       <c r="T2" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="V2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" s="34" customFormat="true">
+      <c r="V2" s="33">
+        <v>3013697282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>103</v>
       </c>
@@ -1487,11 +1480,11 @@
       <c r="T3" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="V3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="V3" s="33">
+        <v>3013697283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>70</v>
       </c>
@@ -1521,11 +1514,11 @@
       <c r="U4">
         <v>1</v>
       </c>
-      <c r="V4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" ht="30">
+      <c r="V4" s="33">
+        <v>3013697284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>70</v>
       </c>
@@ -1559,11 +1552,11 @@
       <c r="U5" s="1">
         <v>1</v>
       </c>
-      <c r="V5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="V5" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>103</v>
       </c>
@@ -1595,11 +1588,11 @@
       <c r="U6" s="1">
         <v>1</v>
       </c>
-      <c r="V6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="V6" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>70</v>
       </c>
@@ -1629,19 +1622,20 @@
       <c r="U7" s="1">
         <v>1</v>
       </c>
-      <c r="V7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" s="34" customFormat="true">
+      <c r="V7" s="33">
+        <v>3013697287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-    </row>
-    <row r="9">
+      <c r="V8" s="33"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>71</v>
       </c>
@@ -1667,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -1693,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
@@ -1719,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -1745,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -1771,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -1797,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
@@ -1823,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
@@ -1849,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>72</v>
       </c>
@@ -1901,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
@@ -1927,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
@@ -1953,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -1979,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>26</v>
       </c>
@@ -2005,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2031,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>74</v>
       </c>
@@ -2057,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>74</v>
       </c>
@@ -2083,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>75</v>
       </c>
@@ -2109,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>76</v>
       </c>
@@ -2135,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>77</v>
       </c>
@@ -2161,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>78</v>
       </c>
@@ -2187,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>79</v>
       </c>
@@ -2213,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>78</v>
       </c>
@@ -2239,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>80</v>
       </c>
@@ -2265,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>80</v>
       </c>
@@ -2291,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -2317,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
@@ -2368,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>77</v>
       </c>
@@ -2412,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>26</v>
       </c>
@@ -2456,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>69</v>
       </c>
@@ -2482,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>71</v>
       </c>
@@ -2508,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>71</v>
       </c>
@@ -2534,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>71</v>
       </c>
@@ -2560,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>25</v>
       </c>
@@ -2586,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>26</v>
       </c>
@@ -2612,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>26</v>
       </c>
@@ -2638,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>26</v>
       </c>
@@ -2664,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>69</v>
       </c>
@@ -2690,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>71</v>
       </c>
@@ -2716,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>71</v>
       </c>
@@ -2742,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>26</v>
       </c>
@@ -2768,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>26</v>
       </c>
@@ -2820,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>78</v>
       </c>
@@ -2846,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>26</v>
       </c>
@@ -2872,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>82</v>
       </c>
@@ -2898,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
@@ -2924,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>78</v>
       </c>
@@ -2950,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>78</v>
       </c>
@@ -2976,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>78</v>
       </c>
@@ -3002,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>78</v>
       </c>
@@ -3028,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>78</v>
       </c>
@@ -3054,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>73</v>
       </c>
@@ -3080,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3106,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -3138,42 +3132,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="5.7109375" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="6" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="12.85546875" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="8.42578125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="4.85546875" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="9" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="7.85546875" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="11.42578125" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="6.85546875" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="11" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="10.42578125" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="9.140625" bestFit="true" customWidth="true"/>
-    <col min="15" max="16" width="9.5703125" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="10.85546875" customWidth="true"/>
-    <col min="18" max="18" width="8.28515625" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="12" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="8.85546875" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="11.85546875" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="9.85546875" bestFit="true" customWidth="true"/>
-    <col min="23" max="23" width="16" bestFit="true" customWidth="true"/>
-    <col min="24" max="24" width="13.5703125" bestFit="true" customWidth="true"/>
-    <col min="25" max="25" width="9.28515625" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3256,12 +3250,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
@@ -11,12 +11,12 @@
     <sheet name="Output" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="129">
   <si>
     <t>Order type</t>
   </si>
@@ -370,13 +370,46 @@
   </si>
   <si>
     <t>3013697286</t>
+  </si>
+  <si>
+    <t>US00064622</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>US00025028</t>
+  </si>
+  <si>
+    <t>BPR</t>
+  </si>
+  <si>
+    <t>BPG</t>
+  </si>
+  <si>
+    <t>3013697296</t>
+  </si>
+  <si>
+    <t>3013697297</t>
+  </si>
+  <si>
+    <t>3013697298</t>
+  </si>
+  <si>
+    <t>3013697299</t>
+  </si>
+  <si>
+    <t>3013697300</t>
+  </si>
+  <si>
+    <t>3013697301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,7 +570,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,19 +619,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778862885"/>
+        <fgColor theme="4" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -609,19 +642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778862885"/>
+        <fgColor theme="5" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -632,19 +665,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778862885"/>
+        <fgColor theme="6" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -655,19 +688,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -678,19 +711,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
+        <fgColor theme="8" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -701,20 +734,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
+        <fgColor theme="9" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -740,7 +779,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.49995422223578601"/>
+        <color theme="4" tint="0.49995422223579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,7 +788,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.39997558519242"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,196 +876,192 @@
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="true"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="true"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="true"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="true"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="true"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="true"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="true"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="true"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="true"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="true"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="true"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="true"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="true"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="true"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="true"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="true"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="true"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="true"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="true"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="true"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="true"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="true"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="true"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="true"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="true"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="true"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="true"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="true"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="true"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="true"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="true"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11" xfId="46"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="44"/>
     <cellStyle name="Normal 3" xfId="43"/>
     <cellStyle name="Normal 4" xfId="45"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="true"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="true"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="true"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="true"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1316,39 +1351,1868 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V61"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="34" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" style="34" customWidth="true"/>
+    <col min="3" max="3" width="15" style="34" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="11.85546875" style="34" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="13.5703125" style="34" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="16" style="34" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="16" style="34" customWidth="true"/>
+    <col min="8" max="8" width="15.7109375" style="34" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="10.7109375" style="34" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" style="34" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="10.7109375" style="34" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" style="34" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" style="34" customWidth="true"/>
+    <col min="14" max="14" width="11.5703125" style="34" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="10.7109375" style="34" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" style="34" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="10.7109375" style="34" customWidth="true"/>
+    <col min="18" max="18" width="18.42578125" style="34" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="6.85546875" style="34" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="18.28515625" style="34" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="13.85546875" style="34" customWidth="true"/>
+    <col min="22" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="33">
+        <v>1</v>
+      </c>
+      <c r="U2" s="34">
+        <v>1</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="33">
+        <v>1</v>
+      </c>
+      <c r="U3" s="34">
+        <v>1</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="33">
+        <v>1</v>
+      </c>
+      <c r="U4" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="33">
+        <v>1</v>
+      </c>
+      <c r="U5" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="33">
+        <v>12</v>
+      </c>
+      <c r="U6" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="33">
+        <v>12</v>
+      </c>
+      <c r="U7" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="33">
+        <v>12</v>
+      </c>
+      <c r="U8" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="33">
+        <v>6</v>
+      </c>
+      <c r="U9" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="33">
+        <v>6</v>
+      </c>
+      <c r="U10" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="33">
+        <v>12</v>
+      </c>
+      <c r="U11" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="33">
+        <v>12</v>
+      </c>
+      <c r="U12" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="33">
+        <v>12</v>
+      </c>
+      <c r="U13" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="33">
+        <v>1</v>
+      </c>
+      <c r="U14" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="33">
+        <v>1</v>
+      </c>
+      <c r="U15" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="33">
+        <v>12</v>
+      </c>
+      <c r="U16" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="33">
+        <v>12</v>
+      </c>
+      <c r="U17" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="33">
+        <v>12</v>
+      </c>
+      <c r="U18" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="33">
+        <v>12</v>
+      </c>
+      <c r="U19" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="33">
+        <v>12</v>
+      </c>
+      <c r="U20" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="33">
+        <v>24</v>
+      </c>
+      <c r="U21" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="33">
+        <v>24</v>
+      </c>
+      <c r="U22" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="33">
+        <v>12</v>
+      </c>
+      <c r="U23" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="33">
+        <v>12</v>
+      </c>
+      <c r="U24" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="33">
+        <v>1</v>
+      </c>
+      <c r="U25" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="33">
+        <v>10</v>
+      </c>
+      <c r="U26" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" s="33">
+        <v>40</v>
+      </c>
+      <c r="U27" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="33">
+        <v>10</v>
+      </c>
+      <c r="U28" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="33">
+        <v>10</v>
+      </c>
+      <c r="U29" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="33">
+        <v>40</v>
+      </c>
+      <c r="U30" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="33">
+        <v>10</v>
+      </c>
+      <c r="U31" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="33">
+        <v>1</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="34">
+        <v>1</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="M32" s="34">
+        <v>1</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32" s="34">
+        <v>1</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q32" s="34">
+        <v>1</v>
+      </c>
+      <c r="R32" s="33"/>
+      <c r="U32" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="33">
+        <v>4</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" s="34">
+        <v>4</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="M33" s="34">
+        <v>1</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="O33" s="34">
+        <v>1</v>
+      </c>
+      <c r="U33" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="33">
+        <v>5</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="K34" s="34">
+        <v>5</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="M34" s="34">
+        <v>2</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="O34" s="34">
+        <v>2</v>
+      </c>
+      <c r="U34" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="33">
+        <v>24</v>
+      </c>
+      <c r="U35" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="33">
+        <v>24</v>
+      </c>
+      <c r="U36" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="33">
+        <v>24</v>
+      </c>
+      <c r="U37" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="33">
+        <v>24</v>
+      </c>
+      <c r="U38" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="33">
+        <v>24</v>
+      </c>
+      <c r="U39" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="33">
+        <v>6</v>
+      </c>
+      <c r="U40" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="33">
+        <v>6</v>
+      </c>
+      <c r="U41" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="33">
+        <v>6</v>
+      </c>
+      <c r="U42" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="33">
+        <v>6</v>
+      </c>
+      <c r="U43" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" s="33">
+        <v>4</v>
+      </c>
+      <c r="U44" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="33">
+        <v>4</v>
+      </c>
+      <c r="U45" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" s="33">
+        <v>4</v>
+      </c>
+      <c r="U46" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" s="33">
+        <v>4</v>
+      </c>
+      <c r="U47" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="33">
+        <v>4</v>
+      </c>
+      <c r="U48" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" s="33">
+        <v>4</v>
+      </c>
+      <c r="U49" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="33">
+        <v>4</v>
+      </c>
+      <c r="U50" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="33">
+        <v>2</v>
+      </c>
+      <c r="U51" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" s="33">
+        <v>504</v>
+      </c>
+      <c r="U52" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53" s="33">
+        <v>2032</v>
+      </c>
+      <c r="U53" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54" s="33">
+        <v>1008</v>
+      </c>
+      <c r="U54" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="33">
+        <v>504</v>
+      </c>
+      <c r="U55" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="33">
+        <v>2032</v>
+      </c>
+      <c r="U56" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I57" s="33">
+        <v>1008</v>
+      </c>
+      <c r="U57" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I59" s="33">
+        <v>6</v>
+      </c>
+      <c r="U59" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" s="33">
+        <v>3</v>
+      </c>
+      <c r="K60" s="33">
+        <v>1</v>
+      </c>
+      <c r="V60" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I61" s="33">
+        <v>4</v>
+      </c>
+      <c r="K61" s="33">
+        <v>1</v>
+      </c>
+      <c r="V61" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.42578125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="4.85546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="9" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="7.85546875" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="11.42578125" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="6.85546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="11" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="10.42578125" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="9.140625" bestFit="true" customWidth="true"/>
+    <col min="15" max="16" width="9.5703125" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="10.85546875" customWidth="true"/>
+    <col min="18" max="18" width="8.28515625" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="12" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="8.85546875" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="11.85546875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="9.85546875" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="16" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="13.5703125" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="9.28515625" bestFit="true" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="4" width="14.28515625" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="13.5703125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="16" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="16" customWidth="true"/>
+    <col min="8" max="8" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="10.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="10.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.5703125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="10.7109375" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="10.7109375" customWidth="true"/>
+    <col min="18" max="18" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="6.85546875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="18.28515625" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="13.85546875" customWidth="true"/>
+    <col min="22" max="22" width="14.42578125" style="33" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +3280,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" s="34" customFormat="true" ht="30">
       <c r="A2" s="33" t="s">
         <v>70</v>
       </c>
@@ -1451,7 +3315,7 @@
         <v>3013697282</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="34" customFormat="true">
       <c r="A3" s="33" t="s">
         <v>103</v>
       </c>
@@ -1484,7 +3348,7 @@
         <v>3013697283</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="33" t="s">
         <v>70</v>
       </c>
@@ -1518,7 +3382,7 @@
         <v>3013697284</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" ht="30">
       <c r="A5" s="33" t="s">
         <v>70</v>
       </c>
@@ -1556,7 +3420,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="33" t="s">
         <v>103</v>
       </c>
@@ -1592,7 +3456,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="33" t="s">
         <v>70</v>
       </c>
@@ -1626,7 +3490,7 @@
         <v>3013697287</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="34" customFormat="true">
       <c r="A8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -1635,7 +3499,7 @@
       <c r="I8" s="33"/>
       <c r="V8" s="33"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="13" t="s">
         <v>71</v>
       </c>
@@ -1661,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -1687,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
@@ -1713,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -1739,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -1765,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -1791,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
@@ -1817,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
@@ -1843,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
@@ -1869,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="13" t="s">
         <v>72</v>
       </c>
@@ -1895,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
@@ -1921,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
@@ -1947,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -1973,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="13" t="s">
         <v>26</v>
       </c>
@@ -1999,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2025,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="13" t="s">
         <v>74</v>
       </c>
@@ -2051,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="13" t="s">
         <v>74</v>
       </c>
@@ -2077,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="14" t="s">
         <v>75</v>
       </c>
@@ -2103,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="13" t="s">
         <v>76</v>
       </c>
@@ -2129,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="13" t="s">
         <v>77</v>
       </c>
@@ -2155,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="13" t="s">
         <v>78</v>
       </c>
@@ -2181,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="13" t="s">
         <v>79</v>
       </c>
@@ -2207,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="13" t="s">
         <v>78</v>
       </c>
@@ -2233,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="14" t="s">
         <v>80</v>
       </c>
@@ -2259,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="14" t="s">
         <v>80</v>
       </c>
@@ -2285,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -2311,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
@@ -2362,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" s="15" t="s">
         <v>77</v>
       </c>
@@ -2406,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" s="16" t="s">
         <v>26</v>
       </c>
@@ -2450,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" s="32" t="s">
         <v>69</v>
       </c>
@@ -2476,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" s="30" t="s">
         <v>71</v>
       </c>
@@ -2502,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="30" t="s">
         <v>71</v>
       </c>
@@ -2528,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="30" t="s">
         <v>71</v>
       </c>
@@ -2554,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="30" t="s">
         <v>25</v>
       </c>
@@ -2580,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="30" t="s">
         <v>26</v>
       </c>
@@ -2606,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="30" t="s">
         <v>26</v>
       </c>
@@ -2632,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" s="30" t="s">
         <v>26</v>
       </c>
@@ -2658,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="32" t="s">
         <v>69</v>
       </c>
@@ -2684,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="30" t="s">
         <v>71</v>
       </c>
@@ -2710,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="30" t="s">
         <v>71</v>
       </c>
@@ -2736,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="30" t="s">
         <v>26</v>
       </c>
@@ -2762,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="30" t="s">
         <v>26</v>
       </c>
@@ -2788,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="30" t="s">
         <v>26</v>
       </c>
@@ -2814,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="30" t="s">
         <v>78</v>
       </c>
@@ -2840,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="30" t="s">
         <v>26</v>
       </c>
@@ -2866,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="32" t="s">
         <v>82</v>
       </c>
@@ -2892,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
@@ -2918,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="30" t="s">
         <v>78</v>
       </c>
@@ -2944,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="30" t="s">
         <v>78</v>
       </c>
@@ -2970,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="30" t="s">
         <v>78</v>
       </c>
@@ -2996,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="30" t="s">
         <v>78</v>
       </c>
@@ -3022,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="30" t="s">
         <v>78</v>
       </c>
@@ -3048,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="13" t="s">
         <v>73</v>
       </c>
@@ -3074,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3100,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -3129,134 +4993,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="116">
   <si>
     <t>Order type</t>
   </si>
@@ -364,12 +364,6 @@
   </si>
   <si>
     <t>USTPU25</t>
-  </si>
-  <si>
-    <t>3013697285</t>
-  </si>
-  <si>
-    <t>3013697286</t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1410,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>70</v>
       </c>
@@ -1447,219 +1441,190 @@
       <c r="T2" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="V2" s="33">
-        <v>3013697282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="V2" s="33"/>
+    </row>
+    <row r="3" spans="1:22" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="V3" s="33"/>
+    </row>
+    <row r="4" spans="1:22" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C4" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="E4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H4" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I4" s="33">
         <v>2</v>
       </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33" t="s">
+      <c r="R4" s="33"/>
+      <c r="S4" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T4" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="V3" s="33">
-        <v>3013697283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="33">
-        <v>1</v>
-      </c>
-      <c r="R4" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4" s="33">
-        <v>3013697284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="V4" s="33"/>
+    </row>
+    <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="33">
+        <v>1</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D6" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H6" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="33">
-        <v>1</v>
-      </c>
-      <c r="R5" s="33" t="s">
+      <c r="I6" s="33">
+        <v>1</v>
+      </c>
+      <c r="R6" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="S6" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T6" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C7" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D7" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="E7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H7" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I7" s="33">
         <v>2</v>
       </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33" t="s">
+      <c r="R7" s="33"/>
+      <c r="S7" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="T7" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C8" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D8" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="33" t="s">
+      <c r="E8" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H8" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="33">
-        <v>1</v>
-      </c>
-      <c r="R7" s="33" t="s">
+      <c r="I8" s="33">
+        <v>1</v>
+      </c>
+      <c r="R8" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="33">
-        <v>3013697287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="V8" s="33"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="7">
-        <v>12</v>
-      </c>
-      <c r="U9" s="1">
-        <v>1</v>
-      </c>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="V9" s="33"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -1672,12 +1637,12 @@
         <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="9" t="s">
         <v>85</v>
       </c>
       <c r="I10" s="7">
@@ -1689,7 +1654,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>57</v>
@@ -1698,10 +1663,10 @@
         <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>85</v>
@@ -1715,25 +1680,25 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>87</v>
+        <v>30</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="I12" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U12" s="1">
         <v>1</v>
@@ -1741,7 +1706,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
@@ -1750,12 +1715,12 @@
         <v>65</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="9" t="s">
         <v>87</v>
       </c>
       <c r="I13" s="7">
@@ -1767,25 +1732,25 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I14" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U14" s="1">
         <v>1</v>
@@ -1805,7 +1770,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>85</v>
@@ -1831,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>85</v>
@@ -1851,19 +1816,19 @@
         <v>57</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I17" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
@@ -1871,22 +1836,22 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -1897,25 +1862,25 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I19" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U19" s="1">
         <v>1</v>
@@ -1935,7 +1900,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>85</v>
@@ -1961,7 +1926,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>85</v>
@@ -1987,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>85</v>
@@ -2013,7 +1978,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>85</v>
@@ -2027,25 +1992,25 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I24" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="U24" s="1">
         <v>1</v>
@@ -2055,7 +2020,7 @@
       <c r="A25" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -2065,7 +2030,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>84</v>
@@ -2073,39 +2038,39 @@
       <c r="I25" s="7">
         <v>24</v>
       </c>
-      <c r="U25" s="34">
+      <c r="U25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="7">
+        <v>24</v>
+      </c>
+      <c r="U26" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="7">
-        <v>12</v>
-      </c>
-      <c r="U26" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>57</v>
@@ -2116,8 +2081,8 @@
       <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>8</v>
+      <c r="F27" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>85</v>
@@ -2131,25 +2096,25 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>86</v>
+        <v>8</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="I28" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U28" s="34">
         <v>1</v>
@@ -2157,7 +2122,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>57</v>
@@ -2169,13 +2134,13 @@
         <v>11</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>86</v>
       </c>
       <c r="I29" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U29" s="34">
         <v>1</v>
@@ -2183,7 +2148,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>57</v>
@@ -2201,7 +2166,7 @@
         <v>86</v>
       </c>
       <c r="I30" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="U30" s="34">
         <v>1</v>
@@ -2209,7 +2174,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>57</v>
@@ -2218,7 +2183,7 @@
         <v>68</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>63</v>
@@ -2227,15 +2192,15 @@
         <v>86</v>
       </c>
       <c r="I31" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="U31" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>80</v>
+      <c r="A32" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>57</v>
@@ -2244,10 +2209,10 @@
         <v>68</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>86</v>
@@ -2279,7 +2244,7 @@
         <v>86</v>
       </c>
       <c r="I33" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="U33" s="34">
         <v>1</v>
@@ -2296,7 +2261,7 @@
         <v>68</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>32</v>
@@ -2305,15 +2270,15 @@
         <v>86</v>
       </c>
       <c r="I34" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="U34" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>77</v>
+      <c r="A35" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>57</v>
@@ -2322,93 +2287,75 @@
         <v>68</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="7">
+        <v>10</v>
+      </c>
+      <c r="U35" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="7">
-        <v>1</v>
-      </c>
-      <c r="J35" s="18" t="s">
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" s="19" t="s">
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35" s="20" t="s">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35" s="21" t="s">
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35" s="22"/>
-      <c r="U35" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36" s="22"/>
+      <c r="U36" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="12">
-        <v>4</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="K36">
-        <v>4</v>
-      </c>
-      <c r="L36" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="U36" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>57</v>
@@ -2416,69 +2363,87 @@
       <c r="D37" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="17" t="s">
+      <c r="E37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="17">
-        <v>5</v>
-      </c>
-      <c r="J37" s="25" t="s">
+      <c r="I37" s="12">
+        <v>4</v>
+      </c>
+      <c r="J37" s="23" t="s">
         <v>93</v>
       </c>
       <c r="K37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L37" s="33" t="s">
         <v>86</v>
       </c>
       <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="U37" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="17">
+        <v>5</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="M38">
         <v>2</v>
       </c>
-      <c r="N37" s="27" t="s">
+      <c r="N38" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="O37">
+      <c r="O38">
         <v>2</v>
       </c>
-      <c r="U37" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="U38" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
         <v>69</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I38" s="29">
-        <v>24</v>
-      </c>
-      <c r="U38" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>71</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>57</v>
@@ -2487,7 +2452,7 @@
         <v>81</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F39" s="28" t="s">
         <v>8</v>
@@ -2513,7 +2478,7 @@
         <v>81</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F40" s="28" t="s">
         <v>8</v>
@@ -2539,7 +2504,7 @@
         <v>81</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F41" s="28" t="s">
         <v>8</v>
@@ -2556,7 +2521,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>57</v>
@@ -2565,7 +2530,7 @@
         <v>81</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F42" s="28" t="s">
         <v>8</v>
@@ -2582,7 +2547,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>57</v>
@@ -2591,7 +2556,7 @@
         <v>81</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F43" s="28" t="s">
         <v>8</v>
@@ -2600,7 +2565,7 @@
         <v>83</v>
       </c>
       <c r="I43" s="29">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U43" s="34">
         <v>1</v>
@@ -2620,7 +2585,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="H44" s="31" t="s">
         <v>83</v>
@@ -2646,7 +2611,7 @@
         <v>11</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>83</v>
@@ -2659,8 +2624,8 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>69</v>
+      <c r="A46" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>57</v>
@@ -2672,7 +2637,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H46" s="31" t="s">
         <v>83</v>
@@ -2685,8 +2650,8 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
-        <v>71</v>
+      <c r="A47" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>57</v>
@@ -2698,13 +2663,13 @@
         <v>11</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H47" s="31" t="s">
         <v>83</v>
       </c>
       <c r="I47" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U47" s="34">
         <v>1</v>
@@ -2724,7 +2689,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H48" s="31" t="s">
         <v>83</v>
@@ -2738,7 +2703,7 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>57</v>
@@ -2750,7 +2715,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H49" s="31" t="s">
         <v>83</v>
@@ -2776,7 +2741,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="H50" s="31" t="s">
         <v>83</v>
@@ -2802,7 +2767,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H51" s="31" t="s">
         <v>83</v>
@@ -2816,7 +2781,7 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>57</v>
@@ -2828,7 +2793,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H52" s="31" t="s">
         <v>83</v>
@@ -2842,7 +2807,7 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>57</v>
@@ -2854,7 +2819,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H53" s="31" t="s">
         <v>83</v>
@@ -2867,8 +2832,8 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>82</v>
+      <c r="A54" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>57</v>
@@ -2880,21 +2845,21 @@
         <v>11</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H54" s="31" t="s">
         <v>83</v>
       </c>
       <c r="I54" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U54" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
-        <v>78</v>
+      <c r="A55" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>57</v>
@@ -2906,13 +2871,13 @@
         <v>11</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H55" s="31" t="s">
         <v>83</v>
       </c>
       <c r="I55" s="29">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="U55" s="34">
         <v>1</v>
@@ -2938,7 +2903,7 @@
         <v>83</v>
       </c>
       <c r="I56" s="29">
-        <v>2032</v>
+        <v>504</v>
       </c>
       <c r="U56" s="34">
         <v>1</v>
@@ -2955,7 +2920,7 @@
         <v>81</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F57" s="28" t="s">
         <v>32</v>
@@ -2964,7 +2929,7 @@
         <v>83</v>
       </c>
       <c r="I57" s="29">
-        <v>1008</v>
+        <v>2032</v>
       </c>
       <c r="U57" s="34">
         <v>1</v>
@@ -2981,16 +2946,16 @@
         <v>81</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H58" s="31" t="s">
         <v>83</v>
       </c>
       <c r="I58" s="29">
-        <v>504</v>
+        <v>1008</v>
       </c>
       <c r="U58" s="34">
         <v>1</v>
@@ -3016,7 +2981,7 @@
         <v>83</v>
       </c>
       <c r="I59" s="29">
-        <v>2032</v>
+        <v>504</v>
       </c>
       <c r="U59" s="34">
         <v>1</v>
@@ -3033,7 +2998,7 @@
         <v>81</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F60" s="28" t="s">
         <v>63</v>
@@ -3042,76 +3007,76 @@
         <v>83</v>
       </c>
       <c r="I60" s="29">
+        <v>2032</v>
+      </c>
+      <c r="U60" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61" s="29">
         <v>1008</v>
       </c>
-      <c r="U60" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="U61" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="9" t="s">
+      <c r="C63" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="31" t="s">
+      <c r="H63" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I63" s="7">
         <v>6</v>
       </c>
-      <c r="U62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C63" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F63" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I63" s="33">
-        <v>3</v>
-      </c>
-      <c r="K63" s="33">
+      <c r="U63" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" t="s">
         <v>99</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="F64" s="33" t="s">
         <v>8</v>
@@ -3120,9 +3085,35 @@
         <v>101</v>
       </c>
       <c r="I64" s="33">
+        <v>3</v>
+      </c>
+      <c r="K64" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" s="33">
         <v>4</v>
       </c>
-      <c r="K64" s="33">
+      <c r="K65" s="33">
         <v>1</v>
       </c>
     </row>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
@@ -11,12 +11,12 @@
     <sheet name="Output" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" fullCalcOnLoad="true"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="131">
   <si>
     <t>Order type</t>
   </si>
@@ -384,15 +384,6 @@
     <t>BPR</t>
   </si>
   <si>
-    <t>BPG</t>
-  </si>
-  <si>
-    <t>3013697296</t>
-  </si>
-  <si>
-    <t>3013697297</t>
-  </si>
-  <si>
     <t>3013697298</t>
   </si>
   <si>
@@ -403,13 +394,28 @@
   </si>
   <si>
     <t>3013697301</t>
+  </si>
+  <si>
+    <t>3013697303</t>
+  </si>
+  <si>
+    <t>3013697304</t>
+  </si>
+  <si>
+    <t>3013697305</t>
+  </si>
+  <si>
+    <t>3013697306</t>
+  </si>
+  <si>
+    <t>CO-Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,19 +625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038484"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778863"/>
+        <fgColor theme="4" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519242"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -642,19 +648,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038484"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778863"/>
+        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519242"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -665,19 +671,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038484"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778863"/>
+        <fgColor theme="6" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519242"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -688,19 +694,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038484"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778863"/>
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519242"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -711,19 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038484"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778863"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519242"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -734,19 +740,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038484"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778863"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519242"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -779,7 +785,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.49995422223579"/>
+        <color theme="4" tint="0.49995422223578601"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,7 +794,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519242"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,47 +882,47 @@
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -926,142 +932,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="true"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="true"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="true"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="true"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="true"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="true"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="true"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="true"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="true"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="true"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="true"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="true"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="true"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="true"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="true"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="true"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="true"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="true"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="true"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="true"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="true"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="true"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="true"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="true"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="true"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="true"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="true"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="true"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="true"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="true"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="true"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11" xfId="46"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="44"/>
     <cellStyle name="Normal 3" xfId="43"/>
     <cellStyle name="Normal 4" xfId="45"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="true"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="true"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="true"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="true"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1351,40 +1362,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V7:V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="34" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" style="34" customWidth="true"/>
-    <col min="3" max="3" width="15" style="34" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="11.85546875" style="34" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="13.5703125" style="34" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="16" style="34" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="16" style="34" customWidth="true"/>
-    <col min="8" max="8" width="15.7109375" style="34" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="10.7109375" style="34" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" style="34" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="10.7109375" style="34" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" style="34" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" style="34" customWidth="true"/>
-    <col min="14" max="14" width="11.5703125" style="34" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="10.7109375" style="34" customWidth="true"/>
-    <col min="16" max="16" width="10.7109375" style="34" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="10.7109375" style="34" customWidth="true"/>
-    <col min="18" max="18" width="18.42578125" style="34" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="6.85546875" style="34" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="18.28515625" style="34" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="13.85546875" style="34" customWidth="true"/>
-    <col min="22" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="17.85546875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="15" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="34" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="34" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="34" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="34" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="34" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="34" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" style="34" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
@@ -1448,8 +1460,11 @@
       <c r="U1" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="V1" s="34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>118</v>
       </c>
@@ -1475,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="V2" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>120</v>
       </c>
@@ -1504,1556 +1519,65 @@
         <v>1</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="32" t="s">
-        <v>69</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>119</v>
+        <v>98</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I4" s="33">
-        <v>1</v>
-      </c>
-      <c r="U4" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="32" t="s">
-        <v>70</v>
+        <v>3</v>
+      </c>
+      <c r="K4" s="33">
+        <v>1</v>
+      </c>
+      <c r="V4" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>119</v>
+        <v>98</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I5" s="33">
-        <v>1</v>
-      </c>
-      <c r="U5" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="33">
-        <v>12</v>
-      </c>
-      <c r="U6" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="33">
-        <v>12</v>
-      </c>
-      <c r="U7" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="33">
-        <v>12</v>
-      </c>
-      <c r="U8" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="33">
-        <v>6</v>
-      </c>
-      <c r="U9" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="33">
-        <v>6</v>
-      </c>
-      <c r="U10" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="33">
-        <v>12</v>
-      </c>
-      <c r="U11" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="33">
-        <v>12</v>
-      </c>
-      <c r="U12" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="33">
-        <v>12</v>
-      </c>
-      <c r="U13" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="33">
-        <v>1</v>
-      </c>
-      <c r="U14" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="33">
-        <v>1</v>
-      </c>
-      <c r="U15" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="33">
-        <v>12</v>
-      </c>
-      <c r="U16" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="33">
-        <v>12</v>
-      </c>
-      <c r="U17" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="33">
-        <v>12</v>
-      </c>
-      <c r="U18" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="33">
-        <v>12</v>
-      </c>
-      <c r="U19" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="33">
-        <v>12</v>
-      </c>
-      <c r="U20" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="33">
-        <v>24</v>
-      </c>
-      <c r="U21" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="33">
-        <v>24</v>
-      </c>
-      <c r="U22" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="33">
-        <v>12</v>
-      </c>
-      <c r="U23" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="33">
-        <v>12</v>
-      </c>
-      <c r="U24" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="33">
-        <v>1</v>
-      </c>
-      <c r="U25" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" s="33">
-        <v>10</v>
-      </c>
-      <c r="U26" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="I27" s="33">
-        <v>40</v>
-      </c>
-      <c r="U27" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="I28" s="33">
-        <v>10</v>
-      </c>
-      <c r="U28" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="33">
-        <v>10</v>
-      </c>
-      <c r="U29" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="33">
-        <v>40</v>
-      </c>
-      <c r="U30" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="33">
-        <v>10</v>
-      </c>
-      <c r="U31" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="33">
-        <v>1</v>
-      </c>
-      <c r="J32" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32" s="34">
-        <v>1</v>
-      </c>
-      <c r="L32" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="M32" s="34">
-        <v>1</v>
-      </c>
-      <c r="N32" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="O32" s="34">
-        <v>1</v>
-      </c>
-      <c r="P32" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q32" s="34">
-        <v>1</v>
-      </c>
-      <c r="R32" s="33"/>
-      <c r="U32" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="33">
         <v>4</v>
       </c>
-      <c r="J33" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="K33" s="34">
-        <v>4</v>
-      </c>
-      <c r="L33" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="M33" s="34">
-        <v>1</v>
-      </c>
-      <c r="N33" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="O33" s="34">
-        <v>1</v>
-      </c>
-      <c r="U33" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="33">
-        <v>5</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="K34" s="34">
-        <v>5</v>
-      </c>
-      <c r="L34" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="M34" s="34">
-        <v>2</v>
-      </c>
-      <c r="N34" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="O34" s="34">
-        <v>2</v>
-      </c>
-      <c r="U34" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35" s="33">
-        <v>24</v>
-      </c>
-      <c r="U35" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I36" s="33">
-        <v>24</v>
-      </c>
-      <c r="U36" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I37" s="33">
-        <v>24</v>
-      </c>
-      <c r="U37" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I38" s="33">
-        <v>24</v>
-      </c>
-      <c r="U38" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I39" s="33">
-        <v>24</v>
-      </c>
-      <c r="U39" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I40" s="33">
-        <v>6</v>
-      </c>
-      <c r="U40" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I41" s="33">
-        <v>6</v>
-      </c>
-      <c r="U41" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I42" s="33">
-        <v>6</v>
-      </c>
-      <c r="U42" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I43" s="33">
-        <v>6</v>
-      </c>
-      <c r="U43" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I44" s="33">
-        <v>4</v>
-      </c>
-      <c r="U44" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I45" s="33">
-        <v>4</v>
-      </c>
-      <c r="U45" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H46" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I46" s="33">
-        <v>4</v>
-      </c>
-      <c r="U46" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="H47" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I47" s="33">
-        <v>4</v>
-      </c>
-      <c r="U47" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I48" s="33">
-        <v>4</v>
-      </c>
-      <c r="U48" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I49" s="33">
-        <v>4</v>
-      </c>
-      <c r="U49" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I50" s="33">
-        <v>4</v>
-      </c>
-      <c r="U50" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I51" s="33">
-        <v>2</v>
-      </c>
-      <c r="U51" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I52" s="33">
-        <v>504</v>
-      </c>
-      <c r="U52" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I53" s="33">
-        <v>2032</v>
-      </c>
-      <c r="U53" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I54" s="33">
-        <v>1008</v>
-      </c>
-      <c r="U54" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H55" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I55" s="33">
-        <v>504</v>
-      </c>
-      <c r="U55" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H56" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I56" s="33">
-        <v>2032</v>
-      </c>
-      <c r="U56" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H57" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I57" s="33">
-        <v>1008</v>
-      </c>
-      <c r="U57" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="I59" s="33">
-        <v>6</v>
-      </c>
-      <c r="U59" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I60" s="33">
-        <v>3</v>
-      </c>
-      <c r="K60" s="33">
-        <v>1</v>
-      </c>
-      <c r="V60" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I61" s="33">
-        <v>4</v>
-      </c>
-      <c r="K61" s="33">
-        <v>1</v>
-      </c>
-      <c r="V61" s="34" t="s">
-        <v>128</v>
+      <c r="K5" s="33">
+        <v>1</v>
+      </c>
+      <c r="V5" s="34" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3062,42 +1586,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="5.7109375" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="6" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="12.85546875" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="8.42578125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="4.85546875" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="9" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="7.85546875" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="11.42578125" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="6.85546875" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="11" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="10.42578125" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="9.140625" bestFit="true" customWidth="true"/>
-    <col min="15" max="16" width="9.5703125" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="10.85546875" customWidth="true"/>
-    <col min="18" max="18" width="8.28515625" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="12" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="8.85546875" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="11.85546875" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="9.85546875" bestFit="true" customWidth="true"/>
-    <col min="23" max="23" width="16" bestFit="true" customWidth="true"/>
-    <col min="24" max="24" width="13.5703125" bestFit="true" customWidth="true"/>
-    <col min="25" max="25" width="9.28515625" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3180,39 +1704,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J8" sqref="J8:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="4" width="14.28515625" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="13.5703125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="16" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="16" customWidth="true"/>
-    <col min="8" max="8" width="15.7109375" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="10.7109375" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="10.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.5703125" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="10.7109375" customWidth="true"/>
-    <col min="16" max="16" width="10.7109375" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="10.7109375" customWidth="true"/>
-    <col min="18" max="18" width="18.42578125" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="6.85546875" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="18.28515625" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="13.85546875" customWidth="true"/>
-    <col min="22" max="22" width="14.42578125" style="33" customWidth="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3280,7 +1804,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" s="34" customFormat="true" ht="30">
+    <row r="2" spans="1:22" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>70</v>
       </c>
@@ -3315,7 +1839,7 @@
         <v>3013697282</v>
       </c>
     </row>
-    <row r="3" s="34" customFormat="true">
+    <row r="3" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>103</v>
       </c>
@@ -3348,7 +1872,7 @@
         <v>3013697283</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>70</v>
       </c>
@@ -3382,7 +1906,7 @@
         <v>3013697284</v>
       </c>
     </row>
-    <row r="5" ht="30">
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>70</v>
       </c>
@@ -3420,7 +1944,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>103</v>
       </c>
@@ -3456,7 +1980,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>70</v>
       </c>
@@ -3490,16 +2014,19 @@
         <v>3013697287</v>
       </c>
     </row>
-    <row r="8" s="34" customFormat="true">
+    <row r="8" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
+      <c r="J8" s="36" t="s">
+        <v>122</v>
+      </c>
       <c r="V8" s="33"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>71</v>
       </c>
@@ -3521,11 +2048,14 @@
       <c r="I9" s="7">
         <v>12</v>
       </c>
+      <c r="J9" s="36" t="s">
+        <v>123</v>
+      </c>
       <c r="U9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -3547,11 +2077,14 @@
       <c r="I10" s="7">
         <v>12</v>
       </c>
+      <c r="J10" s="36" t="s">
+        <v>124</v>
+      </c>
       <c r="U10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
@@ -3573,11 +2106,14 @@
       <c r="I11" s="7">
         <v>12</v>
       </c>
+      <c r="J11" s="36" t="s">
+        <v>125</v>
+      </c>
       <c r="U11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -3603,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -3629,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -3655,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
@@ -3681,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
@@ -3707,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
@@ -3733,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>72</v>
       </c>
@@ -3759,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
@@ -3785,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
@@ -3811,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3837,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>26</v>
       </c>
@@ -3863,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -3889,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>74</v>
       </c>
@@ -3915,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>74</v>
       </c>
@@ -3941,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>75</v>
       </c>
@@ -3967,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>76</v>
       </c>
@@ -3993,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>77</v>
       </c>
@@ -4019,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>78</v>
       </c>
@@ -4045,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>79</v>
       </c>
@@ -4071,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>78</v>
       </c>
@@ -4097,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>80</v>
       </c>
@@ -4123,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>80</v>
       </c>
@@ -4149,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -4175,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
@@ -4226,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>77</v>
       </c>
@@ -4270,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>26</v>
       </c>
@@ -4314,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>69</v>
       </c>
@@ -4340,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>71</v>
       </c>
@@ -4366,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>71</v>
       </c>
@@ -4392,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>71</v>
       </c>
@@ -4418,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>25</v>
       </c>
@@ -4444,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>26</v>
       </c>
@@ -4470,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>26</v>
       </c>
@@ -4496,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>26</v>
       </c>
@@ -4522,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>69</v>
       </c>
@@ -4548,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>71</v>
       </c>
@@ -4574,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>71</v>
       </c>
@@ -4600,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>26</v>
       </c>
@@ -4626,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>26</v>
       </c>
@@ -4652,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>26</v>
       </c>
@@ -4678,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>78</v>
       </c>
@@ -4704,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>26</v>
       </c>
@@ -4730,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>82</v>
       </c>
@@ -4756,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
@@ -4782,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>78</v>
       </c>
@@ -4808,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>78</v>
       </c>
@@ -4834,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>78</v>
       </c>
@@ -4860,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>78</v>
       </c>
@@ -4886,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>78</v>
       </c>
@@ -4912,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>73</v>
       </c>
@@ -4938,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -4964,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>97</v>
       </c>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="120">
   <si>
     <t>Order type</t>
   </si>
@@ -364,6 +364,18 @@
   </si>
   <si>
     <t>USTPU25</t>
+  </si>
+  <si>
+    <t>3013697310</t>
+  </si>
+  <si>
+    <t>3013697311</t>
+  </si>
+  <si>
+    <t>3013697312</t>
+  </si>
+  <si>
+    <t>3013697315</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,190 +1453,219 @@
       <c r="T2" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="V2" s="33"/>
-    </row>
-    <row r="3" spans="1:22" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="V2" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="33">
+        <v>2</v>
+      </c>
       <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="V3" s="33"/>
-    </row>
-    <row r="4" spans="1:22" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="V3" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>106</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I4" s="33">
-        <v>2</v>
-      </c>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="T4" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="V4" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="33">
+        <v>1</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="S5" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="33">
+        <v>3013697313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D6" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="33" t="s">
+      <c r="E6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="33">
+        <v>2</v>
+      </c>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="33">
+        <v>3013697314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H7" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="33">
-        <v>1</v>
-      </c>
-      <c r="R5" s="33" t="s">
+      <c r="I7" s="33">
+        <v>1</v>
+      </c>
+      <c r="R7" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="V8" s="33"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="33">
-        <v>1</v>
-      </c>
-      <c r="R6" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="S6" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="33">
-        <v>2</v>
-      </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="T7" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="33">
-        <v>1</v>
-      </c>
-      <c r="R8" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="V9" s="33"/>
+      <c r="H9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="7">
+        <v>12</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -1637,12 +1678,12 @@
         <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="31" t="s">
         <v>85</v>
       </c>
       <c r="I10" s="7">
@@ -1654,7 +1695,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>57</v>
@@ -1663,10 +1704,10 @@
         <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>85</v>
@@ -1680,25 +1721,25 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>85</v>
+        <v>8</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="I12" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U12" s="1">
         <v>1</v>
@@ -1706,7 +1747,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
@@ -1715,12 +1756,12 @@
         <v>65</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="31" t="s">
         <v>87</v>
       </c>
       <c r="I13" s="7">
@@ -1732,25 +1773,25 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I14" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U14" s="1">
         <v>1</v>
@@ -1770,7 +1811,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>85</v>
@@ -1796,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>85</v>
@@ -1816,19 +1857,19 @@
         <v>57</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
@@ -1836,22 +1877,22 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -1862,25 +1903,25 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U19" s="1">
         <v>1</v>
@@ -1900,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>85</v>
@@ -1926,7 +1967,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>85</v>
@@ -1952,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>85</v>
@@ -1978,7 +2019,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>85</v>
@@ -1992,25 +2033,25 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="U24" s="1">
         <v>1</v>
@@ -2020,7 +2061,7 @@
       <c r="A25" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -2030,7 +2071,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>84</v>
@@ -2038,39 +2079,39 @@
       <c r="I25" s="7">
         <v>24</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>74</v>
+      <c r="A26" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I26" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="U26" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>75</v>
+      <c r="A27" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>57</v>
@@ -2081,8 +2122,8 @@
       <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>64</v>
+      <c r="F27" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>85</v>
@@ -2096,25 +2137,25 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>85</v>
+        <v>37</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="I28" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U28" s="34">
         <v>1</v>
@@ -2122,7 +2163,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>57</v>
@@ -2134,13 +2175,13 @@
         <v>11</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="31" t="s">
         <v>86</v>
       </c>
       <c r="I29" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U29" s="34">
         <v>1</v>
@@ -2148,7 +2189,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>57</v>
@@ -2166,7 +2207,7 @@
         <v>86</v>
       </c>
       <c r="I30" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="U30" s="34">
         <v>1</v>
@@ -2174,7 +2215,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>57</v>
@@ -2183,7 +2224,7 @@
         <v>68</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>63</v>
@@ -2192,15 +2233,15 @@
         <v>86</v>
       </c>
       <c r="I31" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="U31" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>78</v>
+      <c r="A32" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>57</v>
@@ -2209,10 +2250,10 @@
         <v>68</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>86</v>
@@ -2244,7 +2285,7 @@
         <v>86</v>
       </c>
       <c r="I33" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="U33" s="34">
         <v>1</v>
@@ -2261,7 +2302,7 @@
         <v>68</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>32</v>
@@ -2270,15 +2311,15 @@
         <v>86</v>
       </c>
       <c r="I34" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="U34" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>80</v>
+      <c r="A35" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>57</v>
@@ -2287,75 +2328,93 @@
         <v>68</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35" s="22"/>
+      <c r="U35" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="12">
+        <v>4</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="I35" s="7">
-        <v>10</v>
-      </c>
-      <c r="U35" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>90</v>
-      </c>
       <c r="M36">
         <v>1</v>
       </c>
-      <c r="N36" s="20" t="s">
-        <v>91</v>
+      <c r="N36" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
-      <c r="P36" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36" s="22"/>
       <c r="U36" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>77</v>
+      <c r="A37" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>57</v>
@@ -2363,87 +2422,69 @@
       <c r="D37" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="11" t="s">
+      <c r="E37" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="12">
-        <v>4</v>
-      </c>
-      <c r="J37" s="23" t="s">
+      <c r="I37" s="17">
+        <v>5</v>
+      </c>
+      <c r="J37" s="25" t="s">
         <v>93</v>
       </c>
       <c r="K37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L37" s="33" t="s">
         <v>86</v>
       </c>
       <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="27" t="s">
         <v>95</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U37" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="17" t="s">
+      <c r="A38" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="17">
-        <v>5</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="K38">
-        <v>5</v>
-      </c>
-      <c r="L38" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="O38">
-        <v>2</v>
+      <c r="H38" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="29">
+        <v>24</v>
       </c>
       <c r="U38" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>69</v>
+      <c r="A39" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>57</v>
@@ -2452,7 +2493,7 @@
         <v>81</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F39" s="28" t="s">
         <v>8</v>
@@ -2478,7 +2519,7 @@
         <v>81</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F40" s="28" t="s">
         <v>8</v>
@@ -2504,7 +2545,7 @@
         <v>81</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41" s="28" t="s">
         <v>8</v>
@@ -2521,7 +2562,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>57</v>
@@ -2530,7 +2571,7 @@
         <v>81</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F42" s="28" t="s">
         <v>8</v>
@@ -2547,7 +2588,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>57</v>
@@ -2556,7 +2597,7 @@
         <v>81</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F43" s="28" t="s">
         <v>8</v>
@@ -2565,7 +2606,7 @@
         <v>83</v>
       </c>
       <c r="I43" s="29">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="U43" s="34">
         <v>1</v>
@@ -2585,7 +2626,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="H44" s="31" t="s">
         <v>83</v>
@@ -2611,7 +2652,7 @@
         <v>11</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>83</v>
@@ -2624,8 +2665,8 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>26</v>
+      <c r="A46" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>57</v>
@@ -2637,7 +2678,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H46" s="31" t="s">
         <v>83</v>
@@ -2650,8 +2691,8 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
-        <v>69</v>
+      <c r="A47" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>57</v>
@@ -2663,13 +2704,13 @@
         <v>11</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H47" s="31" t="s">
         <v>83</v>
       </c>
       <c r="I47" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U47" s="34">
         <v>1</v>
@@ -2689,7 +2730,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H48" s="31" t="s">
         <v>83</v>
@@ -2703,7 +2744,7 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>57</v>
@@ -2715,7 +2756,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H49" s="31" t="s">
         <v>83</v>
@@ -2741,7 +2782,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H50" s="31" t="s">
         <v>83</v>
@@ -2767,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H51" s="31" t="s">
         <v>83</v>
@@ -2781,7 +2822,7 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>57</v>
@@ -2793,7 +2834,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="H52" s="31" t="s">
         <v>83</v>
@@ -2807,7 +2848,7 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>57</v>
@@ -2819,7 +2860,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="H53" s="31" t="s">
         <v>83</v>
@@ -2832,8 +2873,8 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
-        <v>26</v>
+      <c r="A54" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>57</v>
@@ -2845,21 +2886,21 @@
         <v>11</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="H54" s="31" t="s">
         <v>83</v>
       </c>
       <c r="I54" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U54" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
-        <v>82</v>
+      <c r="A55" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>57</v>
@@ -2871,13 +2912,13 @@
         <v>11</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H55" s="31" t="s">
         <v>83</v>
       </c>
       <c r="I55" s="29">
-        <v>2</v>
+        <v>504</v>
       </c>
       <c r="U55" s="34">
         <v>1</v>
@@ -2903,7 +2944,7 @@
         <v>83</v>
       </c>
       <c r="I56" s="29">
-        <v>504</v>
+        <v>2032</v>
       </c>
       <c r="U56" s="34">
         <v>1</v>
@@ -2920,7 +2961,7 @@
         <v>81</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F57" s="28" t="s">
         <v>32</v>
@@ -2929,7 +2970,7 @@
         <v>83</v>
       </c>
       <c r="I57" s="29">
-        <v>2032</v>
+        <v>1008</v>
       </c>
       <c r="U57" s="34">
         <v>1</v>
@@ -2946,16 +2987,16 @@
         <v>81</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H58" s="31" t="s">
         <v>83</v>
       </c>
       <c r="I58" s="29">
-        <v>1008</v>
+        <v>504</v>
       </c>
       <c r="U58" s="34">
         <v>1</v>
@@ -2981,7 +3022,7 @@
         <v>83</v>
       </c>
       <c r="I59" s="29">
-        <v>504</v>
+        <v>2032</v>
       </c>
       <c r="U59" s="34">
         <v>1</v>
@@ -2998,7 +3039,7 @@
         <v>81</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F60" s="28" t="s">
         <v>63</v>
@@ -3007,76 +3048,76 @@
         <v>83</v>
       </c>
       <c r="I60" s="29">
-        <v>2032</v>
+        <v>1008</v>
       </c>
       <c r="U60" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H61" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I61" s="29">
-        <v>1008</v>
-      </c>
-      <c r="U61" s="34">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I62" s="7">
+        <v>6</v>
+      </c>
+      <c r="U62" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="5" t="s">
+      <c r="A63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H63" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="I63" s="7">
-        <v>6</v>
-      </c>
-      <c r="U63" s="1">
+      <c r="H63" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="33">
+        <v>3</v>
+      </c>
+      <c r="K63" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="34" t="s">
         <v>99</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F64" s="33" t="s">
         <v>8</v>
@@ -3085,35 +3126,9 @@
         <v>101</v>
       </c>
       <c r="I64" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K64" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I65" s="33">
-        <v>4</v>
-      </c>
-      <c r="K65" s="33">
         <v>1</v>
       </c>
     </row>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
@@ -11,12 +11,12 @@
     <sheet name="Output" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="124">
   <si>
     <t>Order type</t>
   </si>
@@ -376,13 +376,25 @@
   </si>
   <si>
     <t>3013697315</t>
+  </si>
+  <si>
+    <t>US00000215</t>
+  </si>
+  <si>
+    <t>Stock Balls</t>
+  </si>
+  <si>
+    <t>F00</t>
+  </si>
+  <si>
+    <t>3013697350</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,19 +604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778862885"/>
+        <fgColor theme="4" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -615,19 +627,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778862885"/>
+        <fgColor theme="5" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -638,19 +650,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778862885"/>
+        <fgColor theme="6" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -661,19 +673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -684,19 +696,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
+        <fgColor theme="8" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -707,20 +719,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
+        <fgColor theme="9" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -746,7 +764,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.49995422223578601"/>
+        <color theme="4" tint="0.49995422223579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,7 +773,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.39997558519242"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,196 +861,196 @@
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="2" fontId="15" fillId="33" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="true"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="true"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="true"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="true"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="true"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="true"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="true"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="true"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="true"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="true"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="true"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="true"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="true"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="true"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="true"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="true"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="true"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="true"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="true"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="true"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="true"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="true"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="true"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="true"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="true"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="true"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="true"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="true"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="true"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="true"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="true"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11" xfId="46"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="44"/>
     <cellStyle name="Normal 3" xfId="43"/>
     <cellStyle name="Normal 4" xfId="45"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="true"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="true"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="true"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="true"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1322,39 +1340,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="true" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="4" width="14.28515625" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="13.5703125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="16" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="16" customWidth="true"/>
+    <col min="8" max="8" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="10.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="10.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.5703125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="10.7109375" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="10.7109375" customWidth="true"/>
+    <col min="18" max="18" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="6.85546875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="18.28515625" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="13.85546875" customWidth="true"/>
+    <col min="22" max="22" width="14.42578125" style="33" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1422,7 +1440,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" s="34" customFormat="true" ht="13.5" customHeight="true">
       <c r="A2" s="33" t="s">
         <v>70</v>
       </c>
@@ -1457,7 +1475,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" s="34" customFormat="true" ht="12" customHeight="true">
       <c r="A3" s="33" t="s">
         <v>103</v>
       </c>
@@ -1490,7 +1508,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="12.75" customHeight="true">
       <c r="A4" s="33" t="s">
         <v>70</v>
       </c>
@@ -1524,7 +1542,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="12.75" customHeight="true">
       <c r="A5" s="33" t="s">
         <v>70</v>
       </c>
@@ -1562,7 +1580,7 @@
         <v>3013697313</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="12" customHeight="true">
       <c r="A6" s="33" t="s">
         <v>103</v>
       </c>
@@ -1598,7 +1616,7 @@
         <v>3013697314</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="33" t="s">
         <v>70</v>
       </c>
@@ -1632,7 +1650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="34" customFormat="true">
       <c r="A8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -1641,7 +1659,7 @@
       <c r="I8" s="33"/>
       <c r="V8" s="33"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="13" t="s">
         <v>71</v>
       </c>
@@ -1667,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -1693,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
@@ -1719,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -1745,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -1771,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -1797,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
@@ -1823,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
@@ -1849,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="13" t="s">
         <v>72</v>
       </c>
@@ -1901,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
@@ -1927,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
@@ -1953,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -1979,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="13" t="s">
         <v>26</v>
       </c>
@@ -2005,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2031,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="13" t="s">
         <v>74</v>
       </c>
@@ -2057,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="13" t="s">
         <v>74</v>
       </c>
@@ -2083,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="14" t="s">
         <v>75</v>
       </c>
@@ -2109,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="13" t="s">
         <v>76</v>
       </c>
@@ -2135,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="13" t="s">
         <v>77</v>
       </c>
@@ -2161,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="13" t="s">
         <v>78</v>
       </c>
@@ -2187,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="13" t="s">
         <v>79</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="13" t="s">
         <v>78</v>
       </c>
@@ -2239,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="14" t="s">
         <v>80</v>
       </c>
@@ -2265,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="14" t="s">
         <v>80</v>
       </c>
@@ -2291,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -2317,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
@@ -2368,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" s="15" t="s">
         <v>77</v>
       </c>
@@ -2412,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" s="16" t="s">
         <v>26</v>
       </c>
@@ -2456,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" s="32" t="s">
         <v>69</v>
       </c>
@@ -2482,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" s="30" t="s">
         <v>71</v>
       </c>
@@ -2508,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="30" t="s">
         <v>71</v>
       </c>
@@ -2534,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="30" t="s">
         <v>71</v>
       </c>
@@ -2560,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="30" t="s">
         <v>25</v>
       </c>
@@ -2586,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="30" t="s">
         <v>26</v>
       </c>
@@ -2612,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="30" t="s">
         <v>26</v>
       </c>
@@ -2638,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" s="30" t="s">
         <v>26</v>
       </c>
@@ -2664,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="32" t="s">
         <v>69</v>
       </c>
@@ -2690,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="30" t="s">
         <v>71</v>
       </c>
@@ -2716,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="30" t="s">
         <v>71</v>
       </c>
@@ -2742,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="30" t="s">
         <v>26</v>
       </c>
@@ -2768,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="30" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="30" t="s">
         <v>26</v>
       </c>
@@ -2820,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="30" t="s">
         <v>78</v>
       </c>
@@ -2846,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="30" t="s">
         <v>26</v>
       </c>
@@ -2872,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="32" t="s">
         <v>82</v>
       </c>
@@ -2898,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
@@ -2924,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="30" t="s">
         <v>78</v>
       </c>
@@ -2950,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="30" t="s">
         <v>78</v>
       </c>
@@ -2976,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="30" t="s">
         <v>78</v>
       </c>
@@ -3002,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="30" t="s">
         <v>78</v>
       </c>
@@ -3028,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="30" t="s">
         <v>78</v>
       </c>
@@ -3054,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="13" t="s">
         <v>73</v>
       </c>
@@ -3080,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3106,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -3130,6 +3148,35 @@
       </c>
       <c r="K64" s="33">
         <v>1</v>
+      </c>
+    </row>
+    <row r="65" s="36" customFormat="true">
+      <c r="A65" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="H65" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" s="36">
+        <v>4</v>
+      </c>
+      <c r="U65" s="36">
+        <v>1</v>
+      </c>
+      <c r="V65" s="38" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3138,42 +3185,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.42578125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="4.85546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="9" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="7.85546875" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="11.42578125" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="6.85546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="11" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="10.42578125" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="9.140625" bestFit="true" customWidth="true"/>
+    <col min="15" max="16" width="9.5703125" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="10.85546875" customWidth="true"/>
+    <col min="18" max="18" width="8.28515625" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="12" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="8.85546875" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="11.85546875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="9.85546875" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="16" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="13.5703125" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="9.28515625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3256,12 +3303,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="270" windowWidth="20580" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Output" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" fullCalcOnLoad="true"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="131">
   <si>
     <t>Order type</t>
   </si>
@@ -366,35 +366,56 @@
     <t>USTPU25</t>
   </si>
   <si>
-    <t>3013697310</t>
-  </si>
-  <si>
-    <t>3013697311</t>
-  </si>
-  <si>
-    <t>3013697312</t>
-  </si>
-  <si>
-    <t>3013697315</t>
-  </si>
-  <si>
-    <t>US00000215</t>
-  </si>
-  <si>
-    <t>Stock Balls</t>
-  </si>
-  <si>
-    <t>F00</t>
-  </si>
-  <si>
-    <t>3013697350</t>
+    <t>3013697285</t>
+  </si>
+  <si>
+    <t>3013697286</t>
+  </si>
+  <si>
+    <t>US00064622</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>US00025028</t>
+  </si>
+  <si>
+    <t>BPR</t>
+  </si>
+  <si>
+    <t>3013697298</t>
+  </si>
+  <si>
+    <t>3013697299</t>
+  </si>
+  <si>
+    <t>3013697300</t>
+  </si>
+  <si>
+    <t>3013697301</t>
+  </si>
+  <si>
+    <t>3013697303</t>
+  </si>
+  <si>
+    <t>3013697304</t>
+  </si>
+  <si>
+    <t>3013697305</t>
+  </si>
+  <si>
+    <t>3013697306</t>
+  </si>
+  <si>
+    <t>CO-Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,19 +625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038484"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778863"/>
+        <fgColor theme="4" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519242"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -627,19 +648,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038484"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778863"/>
+        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519242"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -650,19 +671,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038484"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778863"/>
+        <fgColor theme="6" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519242"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -673,19 +694,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038484"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778863"/>
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519242"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -696,19 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038484"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778863"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519242"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -719,19 +740,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038484"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778863"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519242"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -764,7 +785,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.49995422223579"/>
+        <color theme="4" tint="0.49995422223578601"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,7 +794,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519242"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,196 +882,197 @@
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="2" fontId="15" fillId="33" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="true"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="true"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="true"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="true"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="true"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="true"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="true"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="true"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="true"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="true"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="true"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="true"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="true"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="true"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="true"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="true"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="true"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="true"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="true"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="true"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="true"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="true"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="true"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="true"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="true"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="true"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="true"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="true"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="true"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="true"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="true"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11" xfId="46"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="44"/>
     <cellStyle name="Normal 3" xfId="43"/>
     <cellStyle name="Normal 4" xfId="45"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="true"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="true"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="true"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="true"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1340,39 +1362,381 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="4" width="14.28515625" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="13.5703125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="16" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="16" customWidth="true"/>
-    <col min="8" max="8" width="15.7109375" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="10.7109375" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="10.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.5703125" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="10.7109375" customWidth="true"/>
-    <col min="16" max="16" width="10.7109375" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="10.7109375" customWidth="true"/>
-    <col min="18" max="18" width="18.42578125" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="6.85546875" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="18.28515625" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="13.85546875" customWidth="true"/>
-    <col min="22" max="22" width="14.42578125" style="33" customWidth="true"/>
+    <col min="1" max="1" width="17.85546875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="15" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="34" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="34" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="34" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="34" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="34" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="34" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" style="34" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="33">
+        <v>1</v>
+      </c>
+      <c r="U2" s="34">
+        <v>1</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="33">
+        <v>1</v>
+      </c>
+      <c r="U3" s="34">
+        <v>1</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="33">
+        <v>3</v>
+      </c>
+      <c r="K4" s="33">
+        <v>1</v>
+      </c>
+      <c r="V4" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="33">
+        <v>4</v>
+      </c>
+      <c r="K5" s="33">
+        <v>1</v>
+      </c>
+      <c r="V5" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1440,7 +1804,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" s="34" customFormat="true" ht="13.5" customHeight="true">
+    <row r="2" spans="1:22" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>70</v>
       </c>
@@ -1471,11 +1835,11 @@
       <c r="T2" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="V2" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" s="34" customFormat="true" ht="12" customHeight="true">
+      <c r="V2" s="33">
+        <v>3013697282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>103</v>
       </c>
@@ -1504,11 +1868,11 @@
       <c r="T3" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="V3" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="true">
+      <c r="V3" s="33">
+        <v>3013697283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>70</v>
       </c>
@@ -1538,11 +1902,11 @@
       <c r="U4">
         <v>1</v>
       </c>
-      <c r="V4" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="true">
+      <c r="V4" s="33">
+        <v>3013697284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>70</v>
       </c>
@@ -1576,11 +1940,11 @@
       <c r="U5" s="1">
         <v>1</v>
       </c>
-      <c r="V5" s="33">
-        <v>3013697313</v>
-      </c>
-    </row>
-    <row r="6" ht="12" customHeight="true">
+      <c r="V5" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>103</v>
       </c>
@@ -1612,11 +1976,11 @@
       <c r="U6" s="1">
         <v>1</v>
       </c>
-      <c r="V6" s="33">
-        <v>3013697314</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="V6" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>70</v>
       </c>
@@ -1646,20 +2010,23 @@
       <c r="U7" s="1">
         <v>1</v>
       </c>
-      <c r="V7" s="33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" s="34" customFormat="true">
+      <c r="V7" s="33">
+        <v>3013697287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
+      <c r="J8" s="36" t="s">
+        <v>122</v>
+      </c>
       <c r="V8" s="33"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>71</v>
       </c>
@@ -1681,11 +2048,14 @@
       <c r="I9" s="7">
         <v>12</v>
       </c>
+      <c r="J9" s="36" t="s">
+        <v>123</v>
+      </c>
       <c r="U9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -1707,11 +2077,14 @@
       <c r="I10" s="7">
         <v>12</v>
       </c>
+      <c r="J10" s="36" t="s">
+        <v>124</v>
+      </c>
       <c r="U10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
@@ -1733,11 +2106,14 @@
       <c r="I11" s="7">
         <v>12</v>
       </c>
+      <c r="J11" s="36" t="s">
+        <v>125</v>
+      </c>
       <c r="U11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -1763,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -1789,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -1815,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
@@ -1841,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
@@ -1867,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
@@ -1893,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>72</v>
       </c>
@@ -1919,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
@@ -1945,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
@@ -1971,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -1997,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>26</v>
       </c>
@@ -2023,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2049,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>74</v>
       </c>
@@ -2075,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>74</v>
       </c>
@@ -2101,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>75</v>
       </c>
@@ -2127,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>76</v>
       </c>
@@ -2153,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>77</v>
       </c>
@@ -2179,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>78</v>
       </c>
@@ -2205,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>79</v>
       </c>
@@ -2231,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>78</v>
       </c>
@@ -2257,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>80</v>
       </c>
@@ -2283,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>80</v>
       </c>
@@ -2309,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -2335,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
@@ -2386,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>77</v>
       </c>
@@ -2430,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>26</v>
       </c>
@@ -2474,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>69</v>
       </c>
@@ -2500,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>71</v>
       </c>
@@ -2526,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>71</v>
       </c>
@@ -2552,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>71</v>
       </c>
@@ -2578,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>25</v>
       </c>
@@ -2604,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>26</v>
       </c>
@@ -2630,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>26</v>
       </c>
@@ -2656,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>26</v>
       </c>
@@ -2682,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>69</v>
       </c>
@@ -2708,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>71</v>
       </c>
@@ -2734,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>71</v>
       </c>
@@ -2760,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>26</v>
       </c>
@@ -2786,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>26</v>
       </c>
@@ -2812,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>26</v>
       </c>
@@ -2838,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>78</v>
       </c>
@@ -2864,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>26</v>
       </c>
@@ -2890,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>82</v>
       </c>
@@ -2916,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
@@ -2942,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>78</v>
       </c>
@@ -2968,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>78</v>
       </c>
@@ -2994,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>78</v>
       </c>
@@ -3020,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>78</v>
       </c>
@@ -3046,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>78</v>
       </c>
@@ -3072,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>73</v>
       </c>
@@ -3098,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3124,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -3148,168 +3524,9 @@
       </c>
       <c r="K64" s="33">
         <v>1</v>
-      </c>
-    </row>
-    <row r="65" s="36" customFormat="true">
-      <c r="A65" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="H65" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="I65" s="36">
-        <v>4</v>
-      </c>
-      <c r="U65" s="36">
-        <v>1</v>
-      </c>
-      <c r="V65" s="38" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="5.7109375" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="6" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="12.85546875" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="8.42578125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="4.85546875" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="9" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="7.85546875" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="11.42578125" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="6.85546875" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="11" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="10.42578125" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="9.140625" bestFit="true" customWidth="true"/>
-    <col min="15" max="16" width="9.5703125" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="10.85546875" customWidth="true"/>
-    <col min="18" max="18" width="8.28515625" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="12" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="8.85546875" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="11.85546875" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="9.85546875" bestFit="true" customWidth="true"/>
-    <col min="23" max="23" width="16" bestFit="true" customWidth="true"/>
-    <col min="24" max="24" width="13.5703125" bestFit="true" customWidth="true"/>
-    <col min="25" max="25" width="9.28515625" bestFit="true" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -396,12 +396,6 @@
     <t>3013697301</t>
   </si>
   <si>
-    <t>3013697303</t>
-  </si>
-  <si>
-    <t>3013697304</t>
-  </si>
-  <si>
     <t>3013697305</t>
   </si>
   <si>
@@ -409,6 +403,12 @@
   </si>
   <si>
     <t>CO-Number</t>
+  </si>
+  <si>
+    <t>3014014969</t>
+  </si>
+  <si>
+    <t>3014014970</t>
   </si>
 </sst>
 </file>
@@ -1363,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="V1" s="34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="V2" s="34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1519,12 +1519,12 @@
         <v>1</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>96</v>
+      <c r="A4" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>98</v>
@@ -1533,7 +1533,7 @@
         <v>99</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>8</v>
@@ -1542,42 +1542,42 @@
         <v>101</v>
       </c>
       <c r="I4" s="33">
+        <v>4</v>
+      </c>
+      <c r="K4" s="33">
+        <v>1</v>
+      </c>
+      <c r="V4" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="33">
         <v>3</v>
       </c>
-      <c r="K4" s="33">
-        <v>1</v>
-      </c>
-      <c r="V4" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="33">
-        <v>4</v>
-      </c>
-      <c r="K5" s="33">
-        <v>1</v>
-      </c>
-      <c r="V5" s="34" t="s">
-        <v>129</v>
+      <c r="K6" s="33">
+        <v>1</v>
+      </c>
+      <c r="V6" s="34" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
@@ -11,12 +11,12 @@
     <sheet name="Output" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="133">
   <si>
     <t>Order type</t>
   </si>
@@ -409,13 +409,19 @@
   </si>
   <si>
     <t>3014014970</t>
+  </si>
+  <si>
+    <t>3014014971</t>
+  </si>
+  <si>
+    <t>3014014972</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,19 +631,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778862885"/>
+        <fgColor theme="4" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -648,19 +654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778862885"/>
+        <fgColor theme="5" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -671,19 +677,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778862885"/>
+        <fgColor theme="6" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -694,19 +700,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -717,19 +723,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
+        <fgColor theme="8" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -740,19 +746,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
+        <fgColor theme="9" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -785,7 +791,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.49995422223578601"/>
+        <color theme="4" tint="0.49995422223579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,7 +800,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.39997558519242"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,47 +888,47 @@
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -932,147 +938,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="true"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="true"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="true"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="true"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="true"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="true"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="true"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="true"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="true"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="true"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="true"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="true"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="true"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="true"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="true"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="true"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="true"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="true"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="true"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="true"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="true"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="true"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="true"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="true"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="true"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="true"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="true"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="true"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="true"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="true"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="true"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11" xfId="46"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="44"/>
     <cellStyle name="Normal 3" xfId="43"/>
     <cellStyle name="Normal 4" xfId="45"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="true"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="true"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="true"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="true"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1362,41 +1363,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="15" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="34" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="34" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="34" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="34" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="34" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="34" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" style="34" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="34" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" style="34" customWidth="true"/>
+    <col min="3" max="3" width="15" style="34" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="11.85546875" style="34" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="13.5703125" style="34" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="16" style="34" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="16" style="34" customWidth="true"/>
+    <col min="8" max="8" width="15.7109375" style="34" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="10.7109375" style="34" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" style="34" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="10.7109375" style="34" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" style="34" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" style="34" customWidth="true"/>
+    <col min="14" max="14" width="11.5703125" style="34" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="10.7109375" style="34" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" style="34" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="10.7109375" style="34" customWidth="true"/>
+    <col min="18" max="18" width="18.42578125" style="34" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="6.85546875" style="34" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="18.28515625" style="34" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="13.85546875" style="34" customWidth="true"/>
+    <col min="22" max="22" width="11.85546875" style="34" customWidth="true"/>
     <col min="23" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="32" t="s">
         <v>118</v>
       </c>
@@ -1490,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="V2" s="34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="32" t="s">
         <v>120</v>
       </c>
@@ -1519,10 +1520,10 @@
         <v>1</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="34" t="s">
         <v>97</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="36" t="s">
         <v>96</v>
       </c>
@@ -1586,42 +1587,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.42578125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="4.85546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="9" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="7.85546875" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="11.42578125" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="6.85546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="11" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="10.42578125" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="9.140625" bestFit="true" customWidth="true"/>
+    <col min="15" max="16" width="9.5703125" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="10.85546875" customWidth="true"/>
+    <col min="18" max="18" width="8.28515625" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="12" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="8.85546875" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="11.85546875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="9.85546875" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="16" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="13.5703125" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="9.28515625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1704,39 +1705,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="4" width="14.28515625" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="13.5703125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="16" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="16" customWidth="true"/>
+    <col min="8" max="8" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="10.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="10.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.5703125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="10.7109375" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="10.7109375" customWidth="true"/>
+    <col min="18" max="18" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="6.85546875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="18.28515625" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="13.85546875" customWidth="true"/>
+    <col min="22" max="22" width="14.42578125" style="33" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" s="34" customFormat="true" ht="30">
       <c r="A2" s="33" t="s">
         <v>70</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>3013697282</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="34" customFormat="true">
       <c r="A3" s="33" t="s">
         <v>103</v>
       </c>
@@ -1872,7 +1873,7 @@
         <v>3013697283</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="33" t="s">
         <v>70</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>3013697284</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" ht="30">
       <c r="A5" s="33" t="s">
         <v>70</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="33" t="s">
         <v>103</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="33" t="s">
         <v>70</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>3013697287</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="34" customFormat="true">
       <c r="A8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -2026,7 +2027,7 @@
       </c>
       <c r="V8" s="33"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="13" t="s">
         <v>71</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="13" t="s">
         <v>72</v>
       </c>
@@ -2295,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="13" t="s">
         <v>26</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="13" t="s">
         <v>74</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="13" t="s">
         <v>74</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="14" t="s">
         <v>75</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="13" t="s">
         <v>76</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="13" t="s">
         <v>77</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="13" t="s">
         <v>78</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="13" t="s">
         <v>79</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="13" t="s">
         <v>78</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="14" t="s">
         <v>80</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="14" t="s">
         <v>80</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" s="15" t="s">
         <v>77</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" s="16" t="s">
         <v>26</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" s="32" t="s">
         <v>69</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" s="30" t="s">
         <v>71</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="30" t="s">
         <v>71</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="30" t="s">
         <v>71</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="30" t="s">
         <v>25</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="30" t="s">
         <v>26</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="30" t="s">
         <v>26</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" s="30" t="s">
         <v>26</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="32" t="s">
         <v>69</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="30" t="s">
         <v>71</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="30" t="s">
         <v>71</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="30" t="s">
         <v>26</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="30" t="s">
         <v>26</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="30" t="s">
         <v>26</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="30" t="s">
         <v>78</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="30" t="s">
         <v>26</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="32" t="s">
         <v>82</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="30" t="s">
         <v>78</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="30" t="s">
         <v>78</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="30" t="s">
         <v>78</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="30" t="s">
         <v>78</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="30" t="s">
         <v>78</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="13" t="s">
         <v>73</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3500,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>97</v>
       </c>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
@@ -11,12 +11,12 @@
     <sheet name="Output" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" fullCalcOnLoad="true"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="129">
   <si>
     <t>Order type</t>
   </si>
@@ -396,19 +396,7 @@
     <t>3013697301</t>
   </si>
   <si>
-    <t>3013697305</t>
-  </si>
-  <si>
-    <t>3013697306</t>
-  </si>
-  <si>
     <t>CO-Number</t>
-  </si>
-  <si>
-    <t>3014014969</t>
-  </si>
-  <si>
-    <t>3014014970</t>
   </si>
   <si>
     <t>3014014971</t>
@@ -420,8 +408,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,19 +619,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038484"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778863"/>
+        <fgColor theme="4" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519242"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -654,19 +642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038484"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778863"/>
+        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519242"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -677,19 +665,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038484"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778863"/>
+        <fgColor theme="6" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519242"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -700,19 +688,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038484"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778863"/>
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519242"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -723,19 +711,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038484"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778863"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519242"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -746,19 +734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038484"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778863"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519242"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -791,7 +779,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.49995422223579"/>
+        <color theme="4" tint="0.49995422223578601"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,7 +788,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519242"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,47 +876,47 @@
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -938,142 +926,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="true"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="true"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="true"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="true"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="true"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="true"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="true"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="true"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="true"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="true"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="true"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="true"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="true"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="true"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="true"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="true"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="true"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="true"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="true"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="true"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="true"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="true"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="true"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="true"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="true"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="true"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="true"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="true"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="true"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="true"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="true"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11" xfId="46"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="44"/>
     <cellStyle name="Normal 3" xfId="43"/>
     <cellStyle name="Normal 4" xfId="45"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="true"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="true"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="true"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="true"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1363,41 +1356,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="34" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" style="34" customWidth="true"/>
-    <col min="3" max="3" width="15" style="34" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="11.85546875" style="34" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="13.5703125" style="34" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="16" style="34" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="16" style="34" customWidth="true"/>
-    <col min="8" max="8" width="15.7109375" style="34" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="10.7109375" style="34" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" style="34" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="10.7109375" style="34" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" style="34" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" style="34" customWidth="true"/>
-    <col min="14" max="14" width="11.5703125" style="34" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="10.7109375" style="34" customWidth="true"/>
-    <col min="16" max="16" width="10.7109375" style="34" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="10.7109375" style="34" customWidth="true"/>
-    <col min="18" max="18" width="18.42578125" style="34" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="6.85546875" style="34" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="18.28515625" style="34" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="13.85546875" style="34" customWidth="true"/>
-    <col min="22" max="22" width="11.85546875" style="34" customWidth="true"/>
+    <col min="1" max="1" width="17.85546875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="15" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="34" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="34" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="34" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="34" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="34" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="34" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" style="34" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
@@ -1462,10 +1455,10 @@
         <v>3</v>
       </c>
       <c r="V1" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>118</v>
       </c>
@@ -1491,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="V2" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>120</v>
       </c>
@@ -1520,66 +1513,23 @@
         <v>1</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="33">
-        <v>4</v>
-      </c>
-      <c r="K4" s="33">
-        <v>1</v>
-      </c>
-      <c r="V4" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="33">
-        <v>3</v>
-      </c>
-      <c r="K6" s="33">
-        <v>1</v>
-      </c>
-      <c r="V6" s="34" t="s">
-        <v>126</v>
-      </c>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="K6" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1587,42 +1537,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="5.7109375" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="6" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="12.85546875" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="8.42578125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="4.85546875" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="9" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="7.85546875" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="11.42578125" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="6.85546875" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="11" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="10.42578125" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="9.140625" bestFit="true" customWidth="true"/>
-    <col min="15" max="16" width="9.5703125" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="10.85546875" customWidth="true"/>
-    <col min="18" max="18" width="8.28515625" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="12" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="8.85546875" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="11.85546875" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="9.85546875" bestFit="true" customWidth="true"/>
-    <col min="23" max="23" width="16" bestFit="true" customWidth="true"/>
-    <col min="24" max="24" width="13.5703125" bestFit="true" customWidth="true"/>
-    <col min="25" max="25" width="9.28515625" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1705,39 +1655,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="4" width="14.28515625" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="13.5703125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="16" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="16" customWidth="true"/>
-    <col min="8" max="8" width="15.7109375" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="10.7109375" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="10.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.5703125" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="10.7109375" customWidth="true"/>
-    <col min="16" max="16" width="10.7109375" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="10.7109375" customWidth="true"/>
-    <col min="18" max="18" width="18.42578125" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="6.85546875" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="18.28515625" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="13.85546875" customWidth="true"/>
-    <col min="22" max="22" width="14.42578125" style="33" customWidth="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1805,7 +1755,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" s="34" customFormat="true" ht="30">
+    <row r="2" spans="1:22" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>70</v>
       </c>
@@ -1840,7 +1790,7 @@
         <v>3013697282</v>
       </c>
     </row>
-    <row r="3" s="34" customFormat="true">
+    <row r="3" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>103</v>
       </c>
@@ -1873,7 +1823,7 @@
         <v>3013697283</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>70</v>
       </c>
@@ -1907,7 +1857,7 @@
         <v>3013697284</v>
       </c>
     </row>
-    <row r="5" ht="30">
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>70</v>
       </c>
@@ -1945,7 +1895,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>103</v>
       </c>
@@ -1981,7 +1931,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>70</v>
       </c>
@@ -2015,7 +1965,7 @@
         <v>3013697287</v>
       </c>
     </row>
-    <row r="8" s="34" customFormat="true">
+    <row r="8" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -2027,7 +1977,7 @@
       </c>
       <c r="V8" s="33"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>71</v>
       </c>
@@ -2056,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -2085,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
@@ -2114,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -2140,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -2166,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2192,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
@@ -2218,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
@@ -2244,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
@@ -2270,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>72</v>
       </c>
@@ -2296,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
@@ -2322,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
@@ -2348,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -2374,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>26</v>
       </c>
@@ -2400,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2426,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>74</v>
       </c>
@@ -2452,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>74</v>
       </c>
@@ -2478,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>75</v>
       </c>
@@ -2504,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>76</v>
       </c>
@@ -2530,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>77</v>
       </c>
@@ -2556,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>78</v>
       </c>
@@ -2582,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>79</v>
       </c>
@@ -2608,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>78</v>
       </c>
@@ -2634,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>80</v>
       </c>
@@ -2660,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>80</v>
       </c>
@@ -2686,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -2712,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
@@ -2763,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>77</v>
       </c>
@@ -2807,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>26</v>
       </c>
@@ -2851,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>69</v>
       </c>
@@ -2877,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>71</v>
       </c>
@@ -2903,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>71</v>
       </c>
@@ -2929,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>71</v>
       </c>
@@ -2955,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>25</v>
       </c>
@@ -2981,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>26</v>
       </c>
@@ -3007,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>26</v>
       </c>
@@ -3033,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>26</v>
       </c>
@@ -3059,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>69</v>
       </c>
@@ -3085,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>71</v>
       </c>
@@ -3111,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>71</v>
       </c>
@@ -3137,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>26</v>
       </c>
@@ -3163,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>26</v>
       </c>
@@ -3189,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>26</v>
       </c>
@@ -3215,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>78</v>
       </c>
@@ -3241,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>26</v>
       </c>
@@ -3267,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>82</v>
       </c>
@@ -3293,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
@@ -3319,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>78</v>
       </c>
@@ -3345,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>78</v>
       </c>
@@ -3371,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>78</v>
       </c>
@@ -3397,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>78</v>
       </c>
@@ -3423,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>78</v>
       </c>
@@ -3449,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>73</v>
       </c>
@@ -3475,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3501,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>97</v>
       </c>

--- a/Resources/6-data.xlsx
+++ b/Resources/6-data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
@@ -11,12 +11,12 @@
     <sheet name="Output" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="133">
   <si>
     <t>Order type</t>
   </si>
@@ -403,13 +403,25 @@
   </si>
   <si>
     <t>3014014972</t>
+  </si>
+  <si>
+    <t>3014014973</t>
+  </si>
+  <si>
+    <t>3014014974</t>
+  </si>
+  <si>
+    <t>3014014975</t>
+  </si>
+  <si>
+    <t>3014014976</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,19 +631,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778862885"/>
+        <fgColor theme="4" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -642,19 +654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778862885"/>
+        <fgColor theme="5" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -665,19 +677,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778862885"/>
+        <fgColor theme="6" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -688,19 +700,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -711,19 +723,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
+        <fgColor theme="8" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -734,19 +746,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
+        <fgColor theme="9" tint="0.59996337778863"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -779,7 +791,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.49995422223578601"/>
+        <color theme="4" tint="0.49995422223579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,7 +800,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.39997558519242"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,47 +888,47 @@
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -926,147 +938,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="true"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="true"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="true"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="true"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="true"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="true"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="true"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="true"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="true"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="true"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="true"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="true"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="true"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="true"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="true"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="true"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="true"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="true"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="true"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="true"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="true"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="true"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="true"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="true"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="true"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="true"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="true"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="true"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="true"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="true"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="true"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11" xfId="46"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="44"/>
     <cellStyle name="Normal 3" xfId="43"/>
     <cellStyle name="Normal 4" xfId="45"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="true"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="true"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="true"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="true"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1356,41 +1363,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="15" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="34" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="34" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="34" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="34" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="34" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="34" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" style="34" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="34" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" style="34" customWidth="true"/>
+    <col min="3" max="3" width="15" style="34" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="11.85546875" style="34" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="13.5703125" style="34" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="16" style="34" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="16" style="34" customWidth="true"/>
+    <col min="8" max="8" width="15.7109375" style="34" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="10.7109375" style="34" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" style="34" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="10.7109375" style="34" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" style="34" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" style="34" customWidth="true"/>
+    <col min="14" max="14" width="11.5703125" style="34" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="10.7109375" style="34" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" style="34" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="10.7109375" style="34" customWidth="true"/>
+    <col min="18" max="18" width="18.42578125" style="34" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="6.85546875" style="34" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="18.28515625" style="34" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="13.85546875" style="34" customWidth="true"/>
+    <col min="22" max="22" width="11.85546875" style="34" customWidth="true"/>
     <col min="23" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
@@ -1458,7 +1465,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="32" t="s">
         <v>118</v>
       </c>
@@ -1484,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="V2" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="32" t="s">
         <v>120</v>
       </c>
@@ -1513,17 +1520,17 @@
         <v>1</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
       <c r="K4" s="33"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="36"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -1537,42 +1544,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.42578125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="4.85546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="9" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="7.85546875" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="11.42578125" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="6.85546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="11" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="10.42578125" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="9.140625" bestFit="true" customWidth="true"/>
+    <col min="15" max="16" width="9.5703125" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="10.85546875" customWidth="true"/>
+    <col min="18" max="18" width="8.28515625" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="12" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="8.85546875" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="11.85546875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="9.85546875" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="16" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="13.5703125" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="9.28515625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1655,39 +1662,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="4" width="14.28515625" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="13.5703125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="16" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="16" customWidth="true"/>
+    <col min="8" max="8" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="10.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="10.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.5703125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="10.7109375" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="10.7109375" customWidth="true"/>
+    <col min="18" max="18" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="6.85546875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="18.28515625" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="13.85546875" customWidth="true"/>
+    <col min="22" max="22" width="14.42578125" style="33" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1755,7 +1762,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" s="34" customFormat="true" ht="30">
       <c r="A2" s="33" t="s">
         <v>70</v>
       </c>
@@ -1790,7 +1797,7 @@
         <v>3013697282</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="34" customFormat="true">
       <c r="A3" s="33" t="s">
         <v>103</v>
       </c>
@@ -1823,7 +1830,7 @@
         <v>3013697283</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="33" t="s">
         <v>70</v>
       </c>
@@ -1857,7 +1864,7 @@
         <v>3013697284</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" ht="30">
       <c r="A5" s="33" t="s">
         <v>70</v>
       </c>
@@ -1895,7 +1902,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="33" t="s">
         <v>103</v>
       </c>
@@ -1931,7 +1938,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="33" t="s">
         <v>70</v>
       </c>
@@ -1965,7 +1972,7 @@
         <v>3013697287</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="34" customFormat="true">
       <c r="A8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -1977,7 +1984,7 @@
       </c>
       <c r="V8" s="33"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="13" t="s">
         <v>71</v>
       </c>
@@ -2006,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
@@ -2035,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
@@ -2064,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -2090,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2142,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
@@ -2168,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
@@ -2194,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
@@ -2220,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="13" t="s">
         <v>72</v>
       </c>
@@ -2246,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
@@ -2272,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
@@ -2298,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -2324,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="13" t="s">
         <v>26</v>
       </c>
@@ -2350,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2376,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="13" t="s">
         <v>74</v>
       </c>
@@ -2402,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="13" t="s">
         <v>74</v>
       </c>
@@ -2428,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="14" t="s">
         <v>75</v>
       </c>
@@ -2454,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="13" t="s">
         <v>76</v>
       </c>
@@ -2480,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="13" t="s">
         <v>77</v>
       </c>
@@ -2506,7 +2513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="13" t="s">
         <v>78</v>
       </c>
@@ -2532,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="13" t="s">
         <v>79</v>
       </c>
@@ -2558,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="13" t="s">
         <v>78</v>
       </c>
@@ -2584,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="14" t="s">
         <v>80</v>
       </c>
@@ -2610,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="14" t="s">
         <v>80</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -2662,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
@@ -2713,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" s="15" t="s">
         <v>77</v>
       </c>
@@ -2757,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" s="16" t="s">
         <v>26</v>
       </c>
@@ -2801,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" s="32" t="s">
         <v>69</v>
       </c>
@@ -2827,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" s="30" t="s">
         <v>71</v>
       </c>
@@ -2853,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="30" t="s">
         <v>71</v>
       </c>
@@ -2879,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="30" t="s">
         <v>71</v>
       </c>
@@ -2905,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="30" t="s">
         <v>25</v>
       </c>
@@ -2931,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="30" t="s">
         <v>26</v>
       </c>
@@ -2957,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="30" t="s">
         <v>26</v>
       </c>
@@ -2983,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" s="30" t="s">
         <v>26</v>
       </c>
@@ -3009,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="32" t="s">
         <v>69</v>
       </c>
@@ -3035,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="30" t="s">
         <v>71</v>
       </c>
@@ -3061,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="30" t="s">
         <v>71</v>
       </c>
@@ -3087,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="30" t="s">
         <v>26</v>
       </c>
@@ -3113,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="30" t="s">
         <v>26</v>
       </c>
@@ -3139,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="30" t="s">
         <v>26</v>
       </c>
@@ -3165,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="30" t="s">
         <v>78</v>
       </c>
@@ -3191,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="30" t="s">
         <v>26</v>
       </c>
@@ -3217,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="32" t="s">
         <v>82</v>
       </c>
@@ -3243,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
@@ -3269,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="30" t="s">
         <v>78</v>
       </c>
@@ -3295,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="30" t="s">
         <v>78</v>
       </c>
@@ -3321,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="30" t="s">
         <v>78</v>
       </c>
@@ -3347,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="30" t="s">
         <v>78</v>
       </c>
@@ -3373,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="30" t="s">
         <v>78</v>
       </c>
@@ -3399,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="13" t="s">
         <v>73</v>
       </c>
@@ -3425,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3451,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>97</v>
       </c>
